--- a/public/data/lime/lime_table_kenya.xlsx
+++ b/public/data/lime/lime_table_kenya.xlsx
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.53</v>
+        <v>0.19</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>89</v>
       </c>
       <c r="D3" t="n">
-        <v>2.21</v>
+        <v>1.26</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2262,25 +2262,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>0.95</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.12</v>
-      </c>
       <c r="K3" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -2300,16 +2300,16 @@
         <v>90</v>
       </c>
       <c r="D4" t="n">
-        <v>2.22</v>
+        <v>1.19</v>
       </c>
       <c r="E4" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2318,16 +2318,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.16</v>
+        <v>0.89</v>
       </c>
       <c r="K4" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.71</v>
+        <v>0.5</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -2394,16 +2394,16 @@
         <v>92</v>
       </c>
       <c r="D6" t="n">
-        <v>2.34</v>
+        <v>1.38</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4</v>
+        <v>0.01</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1.63</v>
+        <v>0.44</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.3</v>
+        <v>0.14</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -2468,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.89</v>
+        <v>0.41</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -2515,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>96</v>
       </c>
       <c r="D9" t="n">
-        <v>4.97</v>
+        <v>4.19</v>
       </c>
       <c r="E9" t="n">
-        <v>2.3</v>
+        <v>1.13</v>
       </c>
       <c r="F9" t="n">
-        <v>0.76</v>
+        <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -2553,16 +2553,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.28</v>
+        <v>1.44</v>
       </c>
       <c r="K9" t="n">
-        <v>0.18</v>
+        <v>0.04</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -2582,16 +2582,16 @@
         <v>97</v>
       </c>
       <c r="D10" t="n">
-        <v>4.49</v>
+        <v>3.75</v>
       </c>
       <c r="E10" t="n">
-        <v>2.16</v>
+        <v>0.9</v>
       </c>
       <c r="F10" t="n">
-        <v>0.52</v>
+        <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -2600,16 +2600,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.82</v>
+        <v>2.89</v>
       </c>
       <c r="K10" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="L10" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -2629,16 +2629,16 @@
         <v>98</v>
       </c>
       <c r="D11" t="n">
-        <v>2.11</v>
+        <v>1.4</v>
       </c>
       <c r="E11" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -2647,16 +2647,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3.63</v>
+        <v>2.62</v>
       </c>
       <c r="K11" t="n">
-        <v>1.35</v>
+        <v>0.55</v>
       </c>
       <c r="L11" t="n">
-        <v>0.32</v>
+        <v>0.06</v>
       </c>
       <c r="M11" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -2676,16 +2676,16 @@
         <v>99</v>
       </c>
       <c r="D12" t="n">
-        <v>1.81</v>
+        <v>0.99</v>
       </c>
       <c r="E12" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -2694,16 +2694,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1.62</v>
+        <v>0.7</v>
       </c>
       <c r="K12" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -2723,16 +2723,16 @@
         <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>5.07</v>
+        <v>4.39</v>
       </c>
       <c r="E13" t="n">
-        <v>3.41</v>
+        <v>2.56</v>
       </c>
       <c r="F13" t="n">
-        <v>2.09</v>
+        <v>1.03</v>
       </c>
       <c r="G13" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -2741,16 +2741,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>6.69</v>
+        <v>5.94</v>
       </c>
       <c r="K13" t="n">
-        <v>4.53</v>
+        <v>3.35</v>
       </c>
       <c r="L13" t="n">
-        <v>2.63</v>
+        <v>1.27</v>
       </c>
       <c r="M13" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -2770,13 +2770,13 @@
         <v>102</v>
       </c>
       <c r="D14" t="n">
-        <v>3.35</v>
+        <v>2.76</v>
       </c>
       <c r="E14" t="n">
-        <v>1.51</v>
+        <v>0.49</v>
       </c>
       <c r="F14" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -2788,13 +2788,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>3.66</v>
+        <v>2.94</v>
       </c>
       <c r="K14" t="n">
-        <v>1.63</v>
+        <v>0.52</v>
       </c>
       <c r="L14" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -2817,13 +2817,13 @@
         <v>103</v>
       </c>
       <c r="D15" t="n">
-        <v>5.93</v>
+        <v>5.18</v>
       </c>
       <c r="E15" t="n">
-        <v>3.82</v>
+        <v>2.21</v>
       </c>
       <c r="F15" t="n">
-        <v>1.35</v>
+        <v>0.07</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -2835,13 +2835,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>5</v>
+        <v>4.23</v>
       </c>
       <c r="K15" t="n">
-        <v>3.07</v>
+        <v>1.46</v>
       </c>
       <c r="L15" t="n">
-        <v>0.97</v>
+        <v>0.04</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -2864,13 +2864,13 @@
         <v>104</v>
       </c>
       <c r="D16" t="n">
-        <v>4.11</v>
+        <v>3.37</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>0.68</v>
       </c>
       <c r="F16" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -2882,16 +2882,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>4.28</v>
+        <v>3.49</v>
       </c>
       <c r="K16" t="n">
-        <v>2.08</v>
+        <v>0.91</v>
       </c>
       <c r="L16" t="n">
-        <v>0.58</v>
+        <v>0.04</v>
       </c>
       <c r="M16" t="n">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -2929,16 +2929,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.37</v>
+        <v>2.48</v>
       </c>
       <c r="K17" t="n">
-        <v>1.48</v>
+        <v>0.27</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -2985,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -3005,13 +3005,13 @@
         <v>107</v>
       </c>
       <c r="D19" t="n">
-        <v>4.67</v>
+        <v>3.86</v>
       </c>
       <c r="E19" t="n">
-        <v>2.88</v>
+        <v>1.13</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -3023,16 +3023,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>2.21</v>
+        <v>1.29</v>
       </c>
       <c r="K19" t="n">
-        <v>0.49</v>
+        <v>0.07</v>
       </c>
       <c r="L19" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -3052,16 +3052,16 @@
         <v>108</v>
       </c>
       <c r="D20" t="n">
-        <v>3.72</v>
+        <v>2.93</v>
       </c>
       <c r="E20" t="n">
-        <v>1.89</v>
+        <v>0.71</v>
       </c>
       <c r="F20" t="n">
-        <v>0.48</v>
+        <v>0.01</v>
       </c>
       <c r="G20" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -3070,16 +3070,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>5.06</v>
+        <v>3.99</v>
       </c>
       <c r="K20" t="n">
-        <v>2.44</v>
+        <v>0.99</v>
       </c>
       <c r="L20" t="n">
-        <v>0.57</v>
+        <v>0.09</v>
       </c>
       <c r="M20" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -3099,31 +3099,31 @@
         <v>109</v>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>3.29</v>
       </c>
       <c r="E21" t="n">
-        <v>2.19</v>
+        <v>0.66</v>
       </c>
       <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="L21" t="n">
         <v>0.08</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.56</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -3164,16 +3164,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.98</v>
+        <v>1.06</v>
       </c>
       <c r="K22" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -3211,13 +3211,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>5.45</v>
+        <v>4.65</v>
       </c>
       <c r="K23" t="n">
-        <v>3.34</v>
+        <v>1.7</v>
       </c>
       <c r="L23" t="n">
-        <v>1.08</v>
+        <v>0.04</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>4.7</v>
+        <v>3.85</v>
       </c>
       <c r="K24" t="n">
-        <v>2.61</v>
+        <v>1.05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.68</v>
+        <v>0.06</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -3287,10 +3287,10 @@
         <v>114</v>
       </c>
       <c r="D25" t="n">
-        <v>3.97</v>
+        <v>1.66</v>
       </c>
       <c r="E25" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -3305,16 +3305,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.93</v>
+        <v>1.09</v>
       </c>
       <c r="K25" t="n">
-        <v>0.38</v>
+        <v>0.03</v>
       </c>
       <c r="L25" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -3334,13 +3334,13 @@
         <v>115</v>
       </c>
       <c r="D26" t="n">
-        <v>4.06</v>
+        <v>3.46</v>
       </c>
       <c r="E26" t="n">
-        <v>2.51</v>
+        <v>1.33</v>
       </c>
       <c r="F26" t="n">
-        <v>0.95</v>
+        <v>0.2</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -3352,13 +3352,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>3.95</v>
+        <v>3.34</v>
       </c>
       <c r="K26" t="n">
-        <v>2.13</v>
+        <v>1.02</v>
       </c>
       <c r="L26" t="n">
-        <v>0.63</v>
+        <v>0.17</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -3381,16 +3381,16 @@
         <v>116</v>
       </c>
       <c r="D27" t="n">
-        <v>1.91</v>
+        <v>1.16</v>
       </c>
       <c r="E27" t="n">
-        <v>0.49</v>
+        <v>0.11</v>
       </c>
       <c r="F27" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -3399,16 +3399,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.41</v>
+        <v>1.53</v>
       </c>
       <c r="K27" t="n">
-        <v>0.74</v>
+        <v>0.32</v>
       </c>
       <c r="L27" t="n">
-        <v>0.24</v>
+        <v>0.04</v>
       </c>
       <c r="M27" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -3428,13 +3428,13 @@
         <v>117</v>
       </c>
       <c r="D28" t="n">
-        <v>4.36</v>
+        <v>3.79</v>
       </c>
       <c r="E28" t="n">
-        <v>3.02</v>
+        <v>1.95</v>
       </c>
       <c r="F28" t="n">
-        <v>1.71</v>
+        <v>0.59</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -3446,13 +3446,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>4.64</v>
+        <v>4</v>
       </c>
       <c r="K28" t="n">
-        <v>3.13</v>
+        <v>1.88</v>
       </c>
       <c r="L28" t="n">
-        <v>1.59</v>
+        <v>0.24</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -3475,13 +3475,13 @@
         <v>118</v>
       </c>
       <c r="D29" t="n">
-        <v>3.41</v>
+        <v>2.77</v>
       </c>
       <c r="E29" t="n">
-        <v>1.74</v>
+        <v>0.54</v>
       </c>
       <c r="F29" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -3493,13 +3493,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>4.93</v>
+        <v>4.27</v>
       </c>
       <c r="K29" t="n">
-        <v>2.97</v>
+        <v>1.75</v>
       </c>
       <c r="L29" t="n">
-        <v>1.14</v>
+        <v>0.32</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -3522,13 +3522,13 @@
         <v>119</v>
       </c>
       <c r="D30" t="n">
-        <v>3.99</v>
+        <v>3.35</v>
       </c>
       <c r="E30" t="n">
-        <v>2.31</v>
+        <v>0.92</v>
       </c>
       <c r="F30" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -3540,13 +3540,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>3.53</v>
+        <v>2.81</v>
       </c>
       <c r="K30" t="n">
-        <v>1.79</v>
+        <v>0.52</v>
       </c>
       <c r="L30" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -3569,13 +3569,13 @@
         <v>120</v>
       </c>
       <c r="D31" t="n">
-        <v>3.96</v>
+        <v>3.21</v>
       </c>
       <c r="E31" t="n">
-        <v>2.39</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.84</v>
+        <v>0.14</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3587,13 +3587,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>3.91</v>
+        <v>3.14</v>
       </c>
       <c r="K31" t="n">
-        <v>2.15</v>
+        <v>0.74</v>
       </c>
       <c r="L31" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -3616,13 +3616,13 @@
         <v>122</v>
       </c>
       <c r="D32" t="n">
-        <v>4.77</v>
+        <v>3.84</v>
       </c>
       <c r="E32" t="n">
-        <v>2.17</v>
+        <v>0.59</v>
       </c>
       <c r="F32" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3634,16 +3634,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.64</v>
+        <v>1.44</v>
       </c>
       <c r="K32" t="n">
-        <v>0.49</v>
+        <v>0.12</v>
       </c>
       <c r="L32" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -3663,16 +3663,16 @@
         <v>123</v>
       </c>
       <c r="D33" t="n">
-        <v>1.95</v>
+        <v>1.01</v>
       </c>
       <c r="E33" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3681,16 +3681,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1.93</v>
+        <v>0.75</v>
       </c>
       <c r="K33" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -3710,13 +3710,13 @@
         <v>124</v>
       </c>
       <c r="D34" t="n">
-        <v>6.32</v>
+        <v>5.49</v>
       </c>
       <c r="E34" t="n">
-        <v>4.42</v>
+        <v>2.76</v>
       </c>
       <c r="F34" t="n">
-        <v>2.46</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3728,16 +3728,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>4.15</v>
+        <v>3.17</v>
       </c>
       <c r="K34" t="n">
-        <v>2.05</v>
+        <v>1.06</v>
       </c>
       <c r="L34" t="n">
-        <v>0.83</v>
+        <v>0.16</v>
       </c>
       <c r="M34" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -3757,13 +3757,13 @@
         <v>125</v>
       </c>
       <c r="D35" t="n">
-        <v>6.18</v>
+        <v>5.29</v>
       </c>
       <c r="E35" t="n">
-        <v>4.05</v>
+        <v>2.23</v>
       </c>
       <c r="F35" t="n">
-        <v>1.74</v>
+        <v>0.35</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3775,16 +3775,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>4.52</v>
+        <v>3.41</v>
       </c>
       <c r="K35" t="n">
-        <v>2.15</v>
+        <v>0.91</v>
       </c>
       <c r="L35" t="n">
-        <v>0.74</v>
+        <v>0.11</v>
       </c>
       <c r="M35" t="n">
-        <v>0.69</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -3804,16 +3804,16 @@
         <v>127</v>
       </c>
       <c r="D36" t="n">
-        <v>2.75</v>
+        <v>2.12</v>
       </c>
       <c r="E36" t="n">
-        <v>1.16</v>
+        <v>0.41</v>
       </c>
       <c r="F36" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3822,16 +3822,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.73</v>
+        <v>0.93</v>
       </c>
       <c r="K36" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -3869,16 +3869,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.48</v>
+        <v>0.83</v>
       </c>
       <c r="K37" t="n">
-        <v>0.31</v>
+        <v>0.04</v>
       </c>
       <c r="L37" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -3916,16 +3916,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.38</v>
+        <v>0.51</v>
       </c>
       <c r="K38" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>130</v>
       </c>
       <c r="D39" t="n">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="E39" t="n">
-        <v>1.42</v>
+        <v>0.59</v>
       </c>
       <c r="F39" t="n">
-        <v>0.42</v>
+        <v>0.02</v>
       </c>
       <c r="G39" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3963,16 +3963,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.83</v>
+        <v>1.1</v>
       </c>
       <c r="K39" t="n">
-        <v>0.46</v>
+        <v>0.01</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>136</v>
       </c>
       <c r="D44" t="n">
-        <v>1.74</v>
+        <v>0.42</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.9</v>
+        <v>0.49</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -4292,16 +4292,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.65</v>
+        <v>4.11</v>
       </c>
       <c r="K46" t="n">
-        <v>2.79</v>
+        <v>1.11</v>
       </c>
       <c r="L46" t="n">
-        <v>0.93</v>
+        <v>0.05</v>
       </c>
       <c r="M46" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -4321,13 +4321,13 @@
         <v>140</v>
       </c>
       <c r="D47" t="n">
-        <v>6.2</v>
+        <v>5.65</v>
       </c>
       <c r="E47" t="n">
-        <v>4.33</v>
+        <v>3.24</v>
       </c>
       <c r="F47" t="n">
-        <v>2.55</v>
+        <v>1.6</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -4339,16 +4339,16 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>5.01</v>
+        <v>4.1</v>
       </c>
       <c r="K47" t="n">
-        <v>2.61</v>
+        <v>1.38</v>
       </c>
       <c r="L47" t="n">
-        <v>0.93</v>
+        <v>0.16</v>
       </c>
       <c r="M47" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -4386,16 +4386,16 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>2.73</v>
+        <v>1.48</v>
       </c>
       <c r="K48" t="n">
-        <v>0.42</v>
+        <v>0.03</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -4415,16 +4415,16 @@
         <v>142</v>
       </c>
       <c r="D49" t="n">
-        <v>11.57</v>
+        <v>10.58</v>
       </c>
       <c r="E49" t="n">
-        <v>9.13</v>
+        <v>7.18</v>
       </c>
       <c r="F49" t="n">
-        <v>6.49</v>
+        <v>3.66</v>
       </c>
       <c r="G49" t="n">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4433,16 +4433,16 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>7.65</v>
+        <v>6.5</v>
       </c>
       <c r="K49" t="n">
-        <v>5.12</v>
+        <v>3.19</v>
       </c>
       <c r="L49" t="n">
-        <v>2.73</v>
+        <v>0.86</v>
       </c>
       <c r="M49" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -4480,16 +4480,16 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>2.83</v>
+        <v>1.44</v>
       </c>
       <c r="K50" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -4509,13 +4509,13 @@
         <v>144</v>
       </c>
       <c r="D51" t="n">
-        <v>4.67</v>
+        <v>3.66</v>
       </c>
       <c r="E51" t="n">
-        <v>2.91</v>
+        <v>1.69</v>
       </c>
       <c r="F51" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -4527,16 +4527,16 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>4.04</v>
+        <v>2.93</v>
       </c>
       <c r="K51" t="n">
-        <v>1.79</v>
+        <v>0.86</v>
       </c>
       <c r="L51" t="n">
-        <v>0.74</v>
+        <v>0.17</v>
       </c>
       <c r="M51" t="n">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -4556,16 +4556,16 @@
         <v>145</v>
       </c>
       <c r="D52" t="n">
-        <v>4.36</v>
+        <v>3.71</v>
       </c>
       <c r="E52" t="n">
-        <v>2.49</v>
+        <v>1.25</v>
       </c>
       <c r="F52" t="n">
-        <v>0.6</v>
+        <v>0.02</v>
       </c>
       <c r="G52" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4574,16 +4574,16 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>7.19</v>
+        <v>5.79</v>
       </c>
       <c r="K52" t="n">
-        <v>4.5</v>
+        <v>2.22</v>
       </c>
       <c r="L52" t="n">
-        <v>1.96</v>
+        <v>0.11</v>
       </c>
       <c r="M52" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -4603,7 +4603,7 @@
         <v>146</v>
       </c>
       <c r="D53" t="n">
-        <v>1.56</v>
+        <v>0.26</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -4612,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4621,16 +4621,16 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>3.24</v>
+        <v>1.92</v>
       </c>
       <c r="K53" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="L53" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -4668,16 +4668,16 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>3.25</v>
+        <v>2.04</v>
       </c>
       <c r="K54" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -4809,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.58</v>
+        <v>0.58</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
@@ -4818,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -4856,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1.14</v>
+        <v>0.18</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
@@ -4903,16 +4903,16 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>2.16</v>
+        <v>0.94</v>
       </c>
       <c r="K59" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4950,16 +4950,16 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2.98</v>
+        <v>1.48</v>
       </c>
       <c r="K60" t="n">
-        <v>0.46</v>
+        <v>0.01</v>
       </c>
       <c r="L60" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -4997,10 +4997,10 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2.19</v>
+        <v>0.98</v>
       </c>
       <c r="K61" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -5026,13 +5026,13 @@
         <v>158</v>
       </c>
       <c r="D62" t="n">
-        <v>5.82</v>
+        <v>5.11</v>
       </c>
       <c r="E62" t="n">
-        <v>3.68</v>
+        <v>2.18</v>
       </c>
       <c r="F62" t="n">
-        <v>1.33</v>
+        <v>0.25</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -5044,13 +5044,13 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>8.26</v>
+        <v>7.54</v>
       </c>
       <c r="K62" t="n">
-        <v>5.9</v>
+        <v>4.48</v>
       </c>
       <c r="L62" t="n">
-        <v>3.51</v>
+        <v>2.19</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
@@ -5073,13 +5073,13 @@
         <v>159</v>
       </c>
       <c r="D63" t="n">
-        <v>9.35</v>
+        <v>8.65</v>
       </c>
       <c r="E63" t="n">
-        <v>7.71</v>
+        <v>6.19</v>
       </c>
       <c r="F63" t="n">
-        <v>5.79</v>
+        <v>3.37</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -5091,13 +5091,13 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>9.49</v>
+        <v>8.74</v>
       </c>
       <c r="K63" t="n">
-        <v>7.65</v>
+        <v>6.02</v>
       </c>
       <c r="L63" t="n">
-        <v>5.5</v>
+        <v>3.12</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
@@ -5120,13 +5120,13 @@
         <v>160</v>
       </c>
       <c r="D64" t="n">
-        <v>6.55</v>
+        <v>5.76</v>
       </c>
       <c r="E64" t="n">
-        <v>4.3</v>
+        <v>2.6</v>
       </c>
       <c r="F64" t="n">
-        <v>1.76</v>
+        <v>0.65</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -5138,13 +5138,13 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>7.55</v>
+        <v>6.72</v>
       </c>
       <c r="K64" t="n">
-        <v>5.2</v>
+        <v>3.47</v>
       </c>
       <c r="L64" t="n">
-        <v>2.79</v>
+        <v>1.45</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
@@ -5185,16 +5185,16 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>4.77</v>
+        <v>3.98</v>
       </c>
       <c r="K65" t="n">
-        <v>2.7</v>
+        <v>1.48</v>
       </c>
       <c r="L65" t="n">
-        <v>0.96</v>
+        <v>0.14</v>
       </c>
       <c r="M65" t="n">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -5214,13 +5214,13 @@
         <v>161</v>
       </c>
       <c r="D66" t="n">
-        <v>7.41</v>
+        <v>6.68</v>
       </c>
       <c r="E66" t="n">
-        <v>5.23</v>
+        <v>3.68</v>
       </c>
       <c r="F66" t="n">
-        <v>2.71</v>
+        <v>0.63</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -5232,13 +5232,13 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>6.75</v>
+        <v>5.98</v>
       </c>
       <c r="K66" t="n">
-        <v>4.57</v>
+        <v>2.92</v>
       </c>
       <c r="L66" t="n">
-        <v>2.11</v>
+        <v>0.85</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
@@ -5261,13 +5261,13 @@
         <v>162</v>
       </c>
       <c r="D67" t="n">
-        <v>8.81</v>
+        <v>8</v>
       </c>
       <c r="E67" t="n">
-        <v>6.3</v>
+        <v>4.63</v>
       </c>
       <c r="F67" t="n">
-        <v>3.47</v>
+        <v>1.08</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -5279,16 +5279,16 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>6.65</v>
+        <v>5.83</v>
       </c>
       <c r="K67" t="n">
-        <v>4.31</v>
+        <v>2.72</v>
       </c>
       <c r="L67" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="M67" t="n">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -5308,13 +5308,13 @@
         <v>163</v>
       </c>
       <c r="D68" t="n">
-        <v>4.48</v>
+        <v>3.83</v>
       </c>
       <c r="E68" t="n">
-        <v>2.4</v>
+        <v>1.07</v>
       </c>
       <c r="F68" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -5326,16 +5326,16 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>5.03</v>
+        <v>4.28</v>
       </c>
       <c r="K68" t="n">
-        <v>2.42</v>
+        <v>1.2</v>
       </c>
       <c r="L68" t="n">
-        <v>0.55</v>
+        <v>0.16</v>
       </c>
       <c r="M68" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -5355,13 +5355,13 @@
         <v>164</v>
       </c>
       <c r="D69" t="n">
-        <v>5.79</v>
+        <v>5.04</v>
       </c>
       <c r="E69" t="n">
-        <v>3.52</v>
+        <v>2.2</v>
       </c>
       <c r="F69" t="n">
-        <v>1.39</v>
+        <v>0.1</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -5373,13 +5373,13 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>4.81</v>
+        <v>4</v>
       </c>
       <c r="K69" t="n">
-        <v>2.33</v>
+        <v>0.91</v>
       </c>
       <c r="L69" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
@@ -5402,13 +5402,13 @@
         <v>165</v>
       </c>
       <c r="D70" t="n">
-        <v>6.21</v>
+        <v>5.58</v>
       </c>
       <c r="E70" t="n">
-        <v>4.2</v>
+        <v>2.89</v>
       </c>
       <c r="F70" t="n">
-        <v>2.05</v>
+        <v>0.76</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -5420,13 +5420,13 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>6.46</v>
+        <v>5.72</v>
       </c>
       <c r="K70" t="n">
-        <v>4.08</v>
+        <v>2.87</v>
       </c>
       <c r="L70" t="n">
-        <v>2.15</v>
+        <v>1.16</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
@@ -5449,13 +5449,13 @@
         <v>166</v>
       </c>
       <c r="D71" t="n">
-        <v>6.12</v>
+        <v>5.31</v>
       </c>
       <c r="E71" t="n">
-        <v>3.62</v>
+        <v>1.97</v>
       </c>
       <c r="F71" t="n">
-        <v>1.13</v>
+        <v>0.11</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -5467,13 +5467,13 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>5.05</v>
+        <v>4.23</v>
       </c>
       <c r="K71" t="n">
-        <v>2.46</v>
+        <v>1.22</v>
       </c>
       <c r="L71" t="n">
-        <v>0.71</v>
+        <v>0.14</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
@@ -5496,13 +5496,13 @@
         <v>167</v>
       </c>
       <c r="D72" t="n">
-        <v>6.81</v>
+        <v>6.01</v>
       </c>
       <c r="E72" t="n">
-        <v>4.99</v>
+        <v>3.47</v>
       </c>
       <c r="F72" t="n">
-        <v>3.16</v>
+        <v>1.74</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -5514,13 +5514,13 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>8.59</v>
+        <v>7.79</v>
       </c>
       <c r="K72" t="n">
-        <v>6.27</v>
+        <v>4.5</v>
       </c>
       <c r="L72" t="n">
-        <v>3.65</v>
+        <v>1.41</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
@@ -5543,16 +5543,16 @@
         <v>169</v>
       </c>
       <c r="D73" t="n">
-        <v>5.1</v>
+        <v>3.95</v>
       </c>
       <c r="E73" t="n">
-        <v>2.61</v>
+        <v>0.91</v>
       </c>
       <c r="F73" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5561,16 +5561,16 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>3.22</v>
+        <v>2.12</v>
       </c>
       <c r="K73" t="n">
-        <v>0.91</v>
+        <v>0.12</v>
       </c>
       <c r="L73" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -5590,16 +5590,16 @@
         <v>170</v>
       </c>
       <c r="D74" t="n">
-        <v>1.88</v>
+        <v>1.1</v>
       </c>
       <c r="E74" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5608,16 +5608,16 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>2.15</v>
+        <v>1.32</v>
       </c>
       <c r="K74" t="n">
-        <v>0.42</v>
+        <v>0.1</v>
       </c>
       <c r="L74" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -5637,13 +5637,13 @@
         <v>171</v>
       </c>
       <c r="D75" t="n">
-        <v>2.5</v>
+        <v>1.72</v>
       </c>
       <c r="E75" t="n">
-        <v>0.89</v>
+        <v>0.45</v>
       </c>
       <c r="F75" t="n">
-        <v>0.34</v>
+        <v>0.1</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -5655,16 +5655,16 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>3.68</v>
+        <v>3.02</v>
       </c>
       <c r="K75" t="n">
-        <v>1.79</v>
+        <v>0.85</v>
       </c>
       <c r="L75" t="n">
-        <v>0.51</v>
+        <v>0.11</v>
       </c>
       <c r="M75" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -5684,16 +5684,16 @@
         <v>172</v>
       </c>
       <c r="D76" t="n">
-        <v>2.29</v>
+        <v>1.18</v>
       </c>
       <c r="E76" t="n">
-        <v>0.33</v>
+        <v>0.07</v>
       </c>
       <c r="F76" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5702,16 +5702,16 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>3.12</v>
+        <v>1.75</v>
       </c>
       <c r="K76" t="n">
-        <v>0.86</v>
+        <v>0.32</v>
       </c>
       <c r="L76" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -5731,16 +5731,16 @@
         <v>173</v>
       </c>
       <c r="D77" t="n">
-        <v>3</v>
+        <v>1.78</v>
       </c>
       <c r="E77" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="F77" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5749,16 +5749,16 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2.51</v>
+        <v>1.01</v>
       </c>
       <c r="K77" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="L77" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -5778,13 +5778,13 @@
         <v>174</v>
       </c>
       <c r="D78" t="n">
-        <v>11.12</v>
+        <v>10.45</v>
       </c>
       <c r="E78" t="n">
-        <v>8.88</v>
+        <v>7.44</v>
       </c>
       <c r="F78" t="n">
-        <v>6.26</v>
+        <v>3.93</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -5796,16 +5796,16 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>3.91</v>
+        <v>3.06</v>
       </c>
       <c r="K78" t="n">
-        <v>1.89</v>
+        <v>1.06</v>
       </c>
       <c r="L78" t="n">
-        <v>0.77</v>
+        <v>0.31</v>
       </c>
       <c r="M78" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -5825,16 +5825,16 @@
         <v>176</v>
       </c>
       <c r="D79" t="n">
-        <v>2.5</v>
+        <v>2.04</v>
       </c>
       <c r="E79" t="n">
-        <v>1.16</v>
+        <v>0.49</v>
       </c>
       <c r="F79" t="n">
-        <v>0.22</v>
+        <v>0.01</v>
       </c>
       <c r="G79" t="n">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5843,16 +5843,16 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>1.91</v>
+        <v>1</v>
       </c>
       <c r="K79" t="n">
-        <v>0.19</v>
+        <v>0.04</v>
       </c>
       <c r="L79" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -5872,16 +5872,16 @@
         <v>177</v>
       </c>
       <c r="D80" t="n">
-        <v>2.61</v>
+        <v>2.08</v>
       </c>
       <c r="E80" t="n">
-        <v>1.11</v>
+        <v>0.35</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0.56</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5890,16 +5890,16 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>1.73</v>
+        <v>0.8</v>
       </c>
       <c r="K80" t="n">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
       <c r="L80" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
@@ -5919,16 +5919,16 @@
         <v>178</v>
       </c>
       <c r="D81" t="n">
-        <v>2.47</v>
+        <v>1.76</v>
       </c>
       <c r="E81" t="n">
-        <v>0.57</v>
+        <v>0.04</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5937,16 +5937,16 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>2.14</v>
+        <v>1.22</v>
       </c>
       <c r="K81" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
@@ -5984,16 +5984,16 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>2.87</v>
+        <v>1.63</v>
       </c>
       <c r="K82" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
@@ -6031,16 +6031,16 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>2.22</v>
+        <v>1.05</v>
       </c>
       <c r="K83" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -6060,16 +6060,16 @@
         <v>181</v>
       </c>
       <c r="D84" t="n">
-        <v>1.54</v>
+        <v>0.66</v>
       </c>
       <c r="E84" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6078,16 +6078,16 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>2.55</v>
+        <v>1.47</v>
       </c>
       <c r="K84" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="N84" t="n">
         <v>0</v>
@@ -6125,16 +6125,16 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>2.64</v>
+        <v>1.59</v>
       </c>
       <c r="K85" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="N85" t="n">
         <v>0</v>
@@ -6172,16 +6172,16 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>2.99</v>
+        <v>1.81</v>
       </c>
       <c r="K86" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="L86" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="N86" t="n">
         <v>0</v>
@@ -6201,16 +6201,16 @@
         <v>183</v>
       </c>
       <c r="D87" t="n">
-        <v>2.56</v>
+        <v>2.01</v>
       </c>
       <c r="E87" t="n">
-        <v>1.02</v>
+        <v>0.27</v>
       </c>
       <c r="F87" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6219,16 +6219,16 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>2.11</v>
+        <v>1.39</v>
       </c>
       <c r="K87" t="n">
-        <v>0.33</v>
+        <v>0.02</v>
       </c>
       <c r="L87" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="N87" t="n">
         <v>0</v>
@@ -6248,16 +6248,16 @@
         <v>184</v>
       </c>
       <c r="D88" t="n">
-        <v>1.8</v>
+        <v>0.87</v>
       </c>
       <c r="E88" t="n">
-        <v>0.17</v>
+        <v>0.01</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6266,16 +6266,16 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>2.4</v>
+        <v>1.35</v>
       </c>
       <c r="K88" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N88" t="n">
         <v>0</v>
@@ -6313,16 +6313,16 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>2.66</v>
+        <v>1.41</v>
       </c>
       <c r="K89" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
       </c>
       <c r="M89" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N89" t="n">
         <v>0</v>
@@ -6360,16 +6360,16 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1.94</v>
+        <v>0.86</v>
       </c>
       <c r="K90" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
@@ -6483,16 +6483,16 @@
         <v>190</v>
       </c>
       <c r="D93" t="n">
-        <v>1.66</v>
+        <v>0.91</v>
       </c>
       <c r="E93" t="n">
-        <v>0.64</v>
+        <v>0.15</v>
       </c>
       <c r="F93" t="n">
-        <v>0.32</v>
+        <v>0.04</v>
       </c>
       <c r="G93" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6501,16 +6501,16 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1.7</v>
+        <v>0.92</v>
       </c>
       <c r="K93" t="n">
-        <v>0.81</v>
+        <v>0.21</v>
       </c>
       <c r="L93" t="n">
-        <v>0.45</v>
+        <v>0.03</v>
       </c>
       <c r="M93" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
@@ -6548,16 +6548,16 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>2.19</v>
+        <v>1.02</v>
       </c>
       <c r="K94" t="n">
-        <v>0.72</v>
+        <v>0.01</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M94" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N94" t="n">
         <v>0</v>
@@ -6595,16 +6595,16 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>1.73</v>
+        <v>0.61</v>
       </c>
       <c r="K95" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
@@ -6624,34 +6624,34 @@
         <v>193</v>
       </c>
       <c r="D96" t="n">
-        <v>1.62</v>
+        <v>0.69</v>
       </c>
       <c r="E96" t="n">
-        <v>0.86</v>
+        <v>0.05</v>
       </c>
       <c r="F96" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>1.42</v>
+        <v>0.59</v>
       </c>
       <c r="K96" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N96" t="n">
         <v>0</v>
@@ -6718,16 +6718,16 @@
         <v>196</v>
       </c>
       <c r="D98" t="n">
-        <v>2.7</v>
+        <v>2.01</v>
       </c>
       <c r="E98" t="n">
-        <v>1.02</v>
+        <v>0.29</v>
       </c>
       <c r="F98" t="n">
-        <v>0.14</v>
+        <v>0.02</v>
       </c>
       <c r="G98" t="n">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6736,16 +6736,16 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>2.02</v>
+        <v>1.14</v>
       </c>
       <c r="K98" t="n">
-        <v>0.26</v>
+        <v>0.01</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
       </c>
       <c r="M98" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="N98" t="n">
         <v>0</v>
@@ -6765,16 +6765,16 @@
         <v>197</v>
       </c>
       <c r="D99" t="n">
-        <v>2.53</v>
+        <v>1.81</v>
       </c>
       <c r="E99" t="n">
-        <v>0.94</v>
+        <v>0.41</v>
       </c>
       <c r="F99" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="G99" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6783,16 +6783,16 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>2.15</v>
+        <v>1</v>
       </c>
       <c r="K99" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
       </c>
       <c r="M99" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="N99" t="n">
         <v>0</v>
@@ -6830,16 +6830,16 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>2.24</v>
+        <v>0.87</v>
       </c>
       <c r="K100" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
         <v>0</v>
       </c>
       <c r="M100" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="N100" t="n">
         <v>0</v>
@@ -6859,13 +6859,13 @@
         <v>199</v>
       </c>
       <c r="D101" t="n">
-        <v>2.63</v>
+        <v>1.95</v>
       </c>
       <c r="E101" t="n">
-        <v>0.97</v>
+        <v>0.33</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -6877,16 +6877,16 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>2.61</v>
+        <v>1.61</v>
       </c>
       <c r="K101" t="n">
-        <v>0.57</v>
+        <v>0.08</v>
       </c>
       <c r="L101" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M101" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="N101" t="n">
         <v>0</v>
@@ -6906,16 +6906,16 @@
         <v>201</v>
       </c>
       <c r="D102" t="n">
-        <v>3.29</v>
+        <v>2.58</v>
       </c>
       <c r="E102" t="n">
-        <v>1.64</v>
+        <v>0.65</v>
       </c>
       <c r="F102" t="n">
-        <v>0.43</v>
+        <v>0.05</v>
       </c>
       <c r="G102" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6924,13 +6924,13 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>3.61</v>
+        <v>2.77</v>
       </c>
       <c r="K102" t="n">
-        <v>1.71</v>
+        <v>0.66</v>
       </c>
       <c r="L102" t="n">
-        <v>0.45</v>
+        <v>0.02</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
@@ -6953,16 +6953,16 @@
         <v>202</v>
       </c>
       <c r="D103" t="n">
-        <v>2.7</v>
+        <v>2.06</v>
       </c>
       <c r="E103" t="n">
-        <v>1.16</v>
+        <v>0.61</v>
       </c>
       <c r="F103" t="n">
-        <v>0.38</v>
+        <v>0.06</v>
       </c>
       <c r="G103" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6971,10 +6971,10 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>2.43</v>
+        <v>1.65</v>
       </c>
       <c r="K103" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>
@@ -7000,16 +7000,16 @@
         <v>203</v>
       </c>
       <c r="D104" t="n">
-        <v>2.83</v>
+        <v>2.17</v>
       </c>
       <c r="E104" t="n">
-        <v>1.4</v>
+        <v>0.64</v>
       </c>
       <c r="F104" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="G104" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7018,13 +7018,13 @@
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>7.08</v>
+        <v>6.42</v>
       </c>
       <c r="K104" t="n">
-        <v>5.27</v>
+        <v>3.86</v>
       </c>
       <c r="L104" t="n">
-        <v>3.15</v>
+        <v>0.86</v>
       </c>
       <c r="M104" t="n">
         <v>0</v>
@@ -7047,16 +7047,16 @@
         <v>204</v>
       </c>
       <c r="D105" t="n">
-        <v>4.71</v>
+        <v>4.1</v>
       </c>
       <c r="E105" t="n">
-        <v>3.04</v>
+        <v>1.9</v>
       </c>
       <c r="F105" t="n">
-        <v>1.37</v>
+        <v>0.39</v>
       </c>
       <c r="G105" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7065,13 +7065,13 @@
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>6.33</v>
+        <v>5.5</v>
       </c>
       <c r="K105" t="n">
-        <v>4.19</v>
+        <v>2.41</v>
       </c>
       <c r="L105" t="n">
-        <v>1.69</v>
+        <v>0.13</v>
       </c>
       <c r="M105" t="n">
         <v>0</v>
@@ -7094,16 +7094,16 @@
         <v>205</v>
       </c>
       <c r="D106" t="n">
-        <v>5.25</v>
+        <v>4.63</v>
       </c>
       <c r="E106" t="n">
-        <v>3.74</v>
+        <v>2.55</v>
       </c>
       <c r="F106" t="n">
-        <v>2.17</v>
+        <v>1.08</v>
       </c>
       <c r="G106" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7112,13 +7112,13 @@
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>5.34</v>
+        <v>4.7</v>
       </c>
       <c r="K106" t="n">
-        <v>3.79</v>
+        <v>2.64</v>
       </c>
       <c r="L106" t="n">
-        <v>2.24</v>
+        <v>1.07</v>
       </c>
       <c r="M106" t="n">
         <v>0</v>
@@ -7141,16 +7141,16 @@
         <v>206</v>
       </c>
       <c r="D107" t="n">
-        <v>7.28</v>
+        <v>6.52</v>
       </c>
       <c r="E107" t="n">
-        <v>5.4</v>
+        <v>3.98</v>
       </c>
       <c r="F107" t="n">
-        <v>3.48</v>
+        <v>1.76</v>
       </c>
       <c r="G107" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7159,13 +7159,13 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>3.76</v>
+        <v>3.14</v>
       </c>
       <c r="K107" t="n">
-        <v>2.31</v>
+        <v>1.26</v>
       </c>
       <c r="L107" t="n">
-        <v>1.04</v>
+        <v>0.39</v>
       </c>
       <c r="M107" t="n">
         <v>0</v>
@@ -7188,16 +7188,16 @@
         <v>207</v>
       </c>
       <c r="D108" t="n">
-        <v>2.49</v>
+        <v>1.85</v>
       </c>
       <c r="E108" t="n">
-        <v>0.95</v>
+        <v>0.35</v>
       </c>
       <c r="F108" t="n">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="G108" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7206,16 +7206,16 @@
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>3.07</v>
+        <v>2.31</v>
       </c>
       <c r="K108" t="n">
-        <v>1.48</v>
+        <v>0.58</v>
       </c>
       <c r="L108" t="n">
-        <v>0.46</v>
+        <v>0.24</v>
       </c>
       <c r="M108" t="n">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="N108" t="n">
         <v>0</v>
@@ -7235,13 +7235,13 @@
         <v>208</v>
       </c>
       <c r="D109" t="n">
-        <v>5.02</v>
+        <v>4.27</v>
       </c>
       <c r="E109" t="n">
-        <v>3.34</v>
+        <v>1.96</v>
       </c>
       <c r="F109" t="n">
-        <v>1.73</v>
+        <v>0.55</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -7253,13 +7253,13 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>5.23</v>
+        <v>4.5</v>
       </c>
       <c r="K109" t="n">
-        <v>3.47</v>
+        <v>2.3</v>
       </c>
       <c r="L109" t="n">
-        <v>1.87</v>
+        <v>0.34</v>
       </c>
       <c r="M109" t="n">
         <v>0</v>
@@ -7282,13 +7282,13 @@
         <v>209</v>
       </c>
       <c r="D110" t="n">
-        <v>5.57</v>
+        <v>4.86</v>
       </c>
       <c r="E110" t="n">
-        <v>3.7</v>
+        <v>2.28</v>
       </c>
       <c r="F110" t="n">
-        <v>1.67</v>
+        <v>0.27</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -7300,13 +7300,13 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>4.84</v>
+        <v>4.01</v>
       </c>
       <c r="K110" t="n">
-        <v>2.81</v>
+        <v>1.24</v>
       </c>
       <c r="L110" t="n">
-        <v>0.88</v>
+        <v>0.02</v>
       </c>
       <c r="M110" t="n">
         <v>0</v>
@@ -7347,16 +7347,16 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>3.04</v>
+        <v>2.15</v>
       </c>
       <c r="K111" t="n">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
         <v>0</v>
       </c>
       <c r="M111" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N111" t="n">
         <v>0</v>
@@ -7376,13 +7376,13 @@
         <v>212</v>
       </c>
       <c r="D112" t="n">
-        <v>3.94</v>
+        <v>3.4</v>
       </c>
       <c r="E112" t="n">
-        <v>3.04</v>
+        <v>1.89</v>
       </c>
       <c r="F112" t="n">
-        <v>1.99</v>
+        <v>0.43</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -7394,16 +7394,16 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>2.76</v>
+        <v>2.13</v>
       </c>
       <c r="K112" t="n">
-        <v>1.63</v>
+        <v>0.89</v>
       </c>
       <c r="L112" t="n">
-        <v>0.85</v>
+        <v>0.24</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N112" t="n">
         <v>0</v>
@@ -7441,16 +7441,16 @@
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>4.48</v>
+        <v>3.62</v>
       </c>
       <c r="K113" t="n">
-        <v>2.57</v>
+        <v>1.54</v>
       </c>
       <c r="L113" t="n">
-        <v>1.2</v>
+        <v>0.45</v>
       </c>
       <c r="M113" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="N113" t="n">
         <v>0</v>
@@ -7488,16 +7488,16 @@
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>2.63</v>
+        <v>1.51</v>
       </c>
       <c r="K114" t="n">
-        <v>0.44</v>
+        <v>0.08</v>
       </c>
       <c r="L114" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M114" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="N114" t="n">
         <v>0</v>
@@ -7517,10 +7517,10 @@
         <v>215</v>
       </c>
       <c r="D115" t="n">
-        <v>2.46</v>
+        <v>1.83</v>
       </c>
       <c r="E115" t="n">
-        <v>0.7</v>
+        <v>0.12</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -7535,16 +7535,16 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>3.11</v>
+        <v>2.11</v>
       </c>
       <c r="K115" t="n">
-        <v>1.01</v>
+        <v>0.46</v>
       </c>
       <c r="L115" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="M115" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N115" t="n">
         <v>0</v>
@@ -7582,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>1.9</v>
+        <v>0.58</v>
       </c>
       <c r="K116" t="n">
         <v>0</v>
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="M116" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N116" t="n">
         <v>0</v>
@@ -7611,10 +7611,10 @@
         <v>217</v>
       </c>
       <c r="D117" t="n">
-        <v>2.74</v>
+        <v>1.81</v>
       </c>
       <c r="E117" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -7629,16 +7629,16 @@
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>3.24</v>
+        <v>2.42</v>
       </c>
       <c r="K117" t="n">
-        <v>1.53</v>
+        <v>0.67</v>
       </c>
       <c r="L117" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="M117" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="N117" t="n">
         <v>0</v>
@@ -7676,16 +7676,16 @@
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>1.88</v>
+        <v>1.12</v>
       </c>
       <c r="K118" t="n">
-        <v>0.54</v>
+        <v>0.06</v>
       </c>
       <c r="L118" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M118" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="N118" t="n">
         <v>0</v>
@@ -7723,16 +7723,16 @@
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>2.12</v>
+        <v>1</v>
       </c>
       <c r="K119" t="n">
-        <v>0.57</v>
+        <v>0.04</v>
       </c>
       <c r="L119" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="M119" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="N119" t="n">
         <v>0</v>
@@ -7770,16 +7770,16 @@
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>2.49</v>
+        <v>1.64</v>
       </c>
       <c r="K120" t="n">
-        <v>0.9</v>
+        <v>0.27</v>
       </c>
       <c r="L120" t="n">
-        <v>0.21</v>
+        <v>0.03</v>
       </c>
       <c r="M120" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="N120" t="n">
         <v>0</v>
@@ -7817,16 +7817,16 @@
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>2.54</v>
+        <v>1.45</v>
       </c>
       <c r="K121" t="n">
-        <v>0.39</v>
+        <v>0.03</v>
       </c>
       <c r="L121" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M121" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N121" t="n">
         <v>0</v>
@@ -7864,16 +7864,16 @@
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>2.59</v>
+        <v>1.81</v>
       </c>
       <c r="K122" t="n">
-        <v>1.06</v>
+        <v>0.22</v>
       </c>
       <c r="L122" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="M122" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="N122" t="n">
         <v>0</v>
@@ -7893,13 +7893,13 @@
         <v>224</v>
       </c>
       <c r="D123" t="n">
-        <v>3.14</v>
+        <v>2.36</v>
       </c>
       <c r="E123" t="n">
-        <v>1.77</v>
+        <v>0.09</v>
       </c>
       <c r="F123" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -7911,16 +7911,16 @@
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>2.63</v>
+        <v>1.53</v>
       </c>
       <c r="K123" t="n">
-        <v>0.75</v>
+        <v>0.09</v>
       </c>
       <c r="L123" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="M123" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="N123" t="n">
         <v>0</v>
@@ -7940,13 +7940,13 @@
         <v>225</v>
       </c>
       <c r="D124" t="n">
-        <v>2.59</v>
+        <v>1.93</v>
       </c>
       <c r="E124" t="n">
-        <v>1.2</v>
+        <v>0.19</v>
       </c>
       <c r="F124" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
@@ -7958,16 +7958,16 @@
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>1.97</v>
+        <v>0.86</v>
       </c>
       <c r="K124" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="L124" t="n">
         <v>0</v>
       </c>
       <c r="M124" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N124" t="n">
         <v>0</v>
@@ -8005,16 +8005,16 @@
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>2.66</v>
+        <v>1.72</v>
       </c>
       <c r="K125" t="n">
-        <v>1.16</v>
+        <v>0.31</v>
       </c>
       <c r="L125" t="n">
-        <v>0.39</v>
+        <v>0.02</v>
       </c>
       <c r="M125" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N125" t="n">
         <v>0</v>
@@ -8034,7 +8034,7 @@
         <v>228</v>
       </c>
       <c r="D126" t="n">
-        <v>1.32</v>
+        <v>0.58</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
@@ -8043,7 +8043,7 @@
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8081,10 +8081,10 @@
         <v>229</v>
       </c>
       <c r="D127" t="n">
-        <v>1.87</v>
+        <v>1.24</v>
       </c>
       <c r="E127" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -8099,16 +8099,16 @@
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>1.89</v>
+        <v>1.17</v>
       </c>
       <c r="K127" t="n">
-        <v>0.45</v>
+        <v>0.03</v>
       </c>
       <c r="L127" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M127" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N127" t="n">
         <v>0</v>
@@ -8128,16 +8128,16 @@
         <v>230</v>
       </c>
       <c r="D128" t="n">
-        <v>2.17</v>
+        <v>1.42</v>
       </c>
       <c r="E128" t="n">
-        <v>0.77</v>
+        <v>0.12</v>
       </c>
       <c r="F128" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8146,16 +8146,16 @@
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>2.36</v>
+        <v>1.69</v>
       </c>
       <c r="K128" t="n">
-        <v>0.87</v>
+        <v>0.16</v>
       </c>
       <c r="L128" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M128" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N128" t="n">
         <v>0</v>
@@ -8175,13 +8175,13 @@
         <v>231</v>
       </c>
       <c r="D129" t="n">
-        <v>2.88</v>
+        <v>2.31</v>
       </c>
       <c r="E129" t="n">
-        <v>1.21</v>
+        <v>0.37</v>
       </c>
       <c r="F129" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="G129" t="n">
         <v>0</v>
@@ -8193,16 +8193,16 @@
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>2.79</v>
+        <v>2.12</v>
       </c>
       <c r="K129" t="n">
-        <v>1.19</v>
+        <v>0.35</v>
       </c>
       <c r="L129" t="n">
-        <v>0.16</v>
+        <v>0.01</v>
       </c>
       <c r="M129" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="N129" t="n">
         <v>0</v>
@@ -8287,7 +8287,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>1.35</v>
+        <v>0.28</v>
       </c>
       <c r="K131" t="n">
         <v>0</v>
@@ -8296,7 +8296,7 @@
         <v>0</v>
       </c>
       <c r="M131" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N131" t="n">
         <v>0</v>
@@ -8334,7 +8334,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>1.63</v>
+        <v>0.4</v>
       </c>
       <c r="K132" t="n">
         <v>0</v>
@@ -8363,7 +8363,7 @@
         <v>237</v>
       </c>
       <c r="D133" t="n">
-        <v>1.8</v>
+        <v>0.42</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
@@ -8372,7 +8372,7 @@
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8381,16 +8381,16 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>1.95</v>
+        <v>0.64</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L133" t="n">
         <v>0</v>
       </c>
       <c r="M133" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="N133" t="n">
         <v>0</v>
@@ -8410,16 +8410,16 @@
         <v>238</v>
       </c>
       <c r="D134" t="n">
-        <v>2.58</v>
+        <v>1.53</v>
       </c>
       <c r="E134" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8428,16 +8428,16 @@
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>2.71</v>
+        <v>1.5</v>
       </c>
       <c r="K134" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="L134" t="n">
         <v>0</v>
       </c>
       <c r="M134" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="N134" t="n">
         <v>0</v>
@@ -8457,13 +8457,13 @@
         <v>240</v>
       </c>
       <c r="D135" t="n">
-        <v>5.88</v>
+        <v>5.26</v>
       </c>
       <c r="E135" t="n">
-        <v>4.55</v>
+        <v>3.21</v>
       </c>
       <c r="F135" t="n">
-        <v>2.99</v>
+        <v>0.81</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
@@ -8475,13 +8475,13 @@
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>4.01</v>
+        <v>3.21</v>
       </c>
       <c r="K135" t="n">
-        <v>2.24</v>
+        <v>0.97</v>
       </c>
       <c r="L135" t="n">
-        <v>0.85</v>
+        <v>0.16</v>
       </c>
       <c r="M135" t="n">
         <v>0</v>
@@ -8504,13 +8504,13 @@
         <v>241</v>
       </c>
       <c r="D136" t="n">
-        <v>5.49</v>
+        <v>4.92</v>
       </c>
       <c r="E136" t="n">
-        <v>4.15</v>
+        <v>2.93</v>
       </c>
       <c r="F136" t="n">
-        <v>2.59</v>
+        <v>0.79</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
@@ -8522,16 +8522,16 @@
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>5.07</v>
+        <v>4.25</v>
       </c>
       <c r="K136" t="n">
-        <v>3.42</v>
+        <v>1.99</v>
       </c>
       <c r="L136" t="n">
-        <v>1.83</v>
+        <v>0.44</v>
       </c>
       <c r="M136" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="N136" t="n">
         <v>0</v>
@@ -8551,13 +8551,13 @@
         <v>242</v>
       </c>
       <c r="D137" t="n">
-        <v>5.44</v>
+        <v>4.86</v>
       </c>
       <c r="E137" t="n">
-        <v>4.11</v>
+        <v>2.86</v>
       </c>
       <c r="F137" t="n">
-        <v>2.56</v>
+        <v>0.85</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
@@ -8569,16 +8569,16 @@
         <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>4.72</v>
+        <v>3.86</v>
       </c>
       <c r="K137" t="n">
-        <v>3.03</v>
+        <v>1.68</v>
       </c>
       <c r="L137" t="n">
-        <v>1.55</v>
+        <v>0.32</v>
       </c>
       <c r="M137" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="N137" t="n">
         <v>0</v>
@@ -8616,16 +8616,16 @@
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>1.81</v>
+        <v>0.9</v>
       </c>
       <c r="K138" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="L138" t="n">
         <v>0</v>
       </c>
       <c r="M138" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N138" t="n">
         <v>0</v>
@@ -8645,10 +8645,10 @@
         <v>244</v>
       </c>
       <c r="D139" t="n">
-        <v>3.4</v>
+        <v>2.62</v>
       </c>
       <c r="E139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -8663,16 +8663,16 @@
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>2.44</v>
+        <v>1.38</v>
       </c>
       <c r="K139" t="n">
-        <v>0.43</v>
+        <v>0.05</v>
       </c>
       <c r="L139" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M139" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="N139" t="n">
         <v>0</v>
@@ -8710,16 +8710,16 @@
         <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>3.76</v>
+        <v>2.76</v>
       </c>
       <c r="K140" t="n">
-        <v>1.87</v>
+        <v>0.69</v>
       </c>
       <c r="L140" t="n">
-        <v>0.64</v>
+        <v>0.02</v>
       </c>
       <c r="M140" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N140" t="n">
         <v>0</v>
@@ -8739,13 +8739,13 @@
         <v>246</v>
       </c>
       <c r="D141" t="n">
-        <v>5.33</v>
+        <v>4.69</v>
       </c>
       <c r="E141" t="n">
-        <v>3.95</v>
+        <v>2.58</v>
       </c>
       <c r="F141" t="n">
-        <v>2.33</v>
+        <v>0.35</v>
       </c>
       <c r="G141" t="n">
         <v>0</v>
@@ -8757,16 +8757,16 @@
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>4.38</v>
+        <v>3.55</v>
       </c>
       <c r="K141" t="n">
-        <v>2.71</v>
+        <v>1.34</v>
       </c>
       <c r="L141" t="n">
-        <v>1.21</v>
+        <v>0.18</v>
       </c>
       <c r="M141" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="N141" t="n">
         <v>0</v>
@@ -8851,16 +8851,16 @@
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>1.64</v>
+        <v>0.66</v>
       </c>
       <c r="K143" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L143" t="n">
         <v>0</v>
       </c>
       <c r="M143" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="N143" t="n">
         <v>0</v>
@@ -8880,13 +8880,13 @@
         <v>250</v>
       </c>
       <c r="D144" t="n">
-        <v>3.14</v>
+        <v>2.62</v>
       </c>
       <c r="E144" t="n">
-        <v>1.65</v>
+        <v>0.77</v>
       </c>
       <c r="F144" t="n">
-        <v>0.47</v>
+        <v>0.13</v>
       </c>
       <c r="G144" t="n">
         <v>0</v>
@@ -8898,16 +8898,16 @@
         <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>4.02</v>
+        <v>3.3</v>
       </c>
       <c r="K144" t="n">
-        <v>2.43</v>
+        <v>1.31</v>
       </c>
       <c r="L144" t="n">
-        <v>1.07</v>
+        <v>0.27</v>
       </c>
       <c r="M144" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N144" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>1.36</v>
+        <v>0.45</v>
       </c>
       <c r="K145" t="n">
         <v>0</v>
@@ -8954,7 +8954,7 @@
         <v>0</v>
       </c>
       <c r="M145" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N145" t="n">
         <v>0</v>
@@ -8992,16 +8992,16 @@
         <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>1.72</v>
+        <v>0.86</v>
       </c>
       <c r="K146" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="L146" t="n">
         <v>0</v>
       </c>
       <c r="M146" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N146" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>253</v>
       </c>
       <c r="D147" t="n">
-        <v>6.63</v>
+        <v>6</v>
       </c>
       <c r="E147" t="n">
-        <v>4.97</v>
+        <v>3.79</v>
       </c>
       <c r="F147" t="n">
-        <v>3.36</v>
+        <v>1.86</v>
       </c>
       <c r="G147" t="n">
         <v>0</v>
@@ -9039,16 +9039,16 @@
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>3.59</v>
+        <v>2.74</v>
       </c>
       <c r="K147" t="n">
-        <v>1.77</v>
+        <v>0.89</v>
       </c>
       <c r="L147" t="n">
-        <v>0.71</v>
+        <v>0.2</v>
       </c>
       <c r="M147" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="N147" t="n">
         <v>0</v>
@@ -9068,16 +9068,16 @@
         <v>249</v>
       </c>
       <c r="D148" t="n">
-        <v>1.93</v>
+        <v>1.39</v>
       </c>
       <c r="E148" t="n">
-        <v>0.61</v>
+        <v>0.14</v>
       </c>
       <c r="F148" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9086,16 +9086,16 @@
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>2.33</v>
+        <v>1.55</v>
       </c>
       <c r="K148" t="n">
-        <v>0.67</v>
+        <v>0.16</v>
       </c>
       <c r="L148" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="M148" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="N148" t="n">
         <v>0</v>
@@ -9115,13 +9115,13 @@
         <v>254</v>
       </c>
       <c r="D149" t="n">
-        <v>3.45</v>
+        <v>2.91</v>
       </c>
       <c r="E149" t="n">
-        <v>2.18</v>
+        <v>1.14</v>
       </c>
       <c r="F149" t="n">
-        <v>0.85</v>
+        <v>0.14</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
@@ -9133,16 +9133,16 @@
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>3.46</v>
+        <v>2.65</v>
       </c>
       <c r="K149" t="n">
-        <v>1.9</v>
+        <v>0.78</v>
       </c>
       <c r="L149" t="n">
-        <v>0.7</v>
+        <v>0.09</v>
       </c>
       <c r="M149" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="N149" t="n">
         <v>0</v>
@@ -9509,16 +9509,16 @@
         <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>4.16</v>
+        <v>2.93</v>
       </c>
       <c r="K157" t="n">
-        <v>1.86</v>
+        <v>0.82</v>
       </c>
       <c r="L157" t="n">
-        <v>0.72</v>
+        <v>0.2</v>
       </c>
       <c r="M157" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N157" t="n">
         <v>0</v>
@@ -9603,7 +9603,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>1.27</v>
+        <v>0.27</v>
       </c>
       <c r="K159" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="M160" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N160" t="n">
         <v>0</v>
@@ -9679,16 +9679,16 @@
         <v>269</v>
       </c>
       <c r="D161" t="n">
-        <v>1.51</v>
+        <v>0.62</v>
       </c>
       <c r="E161" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9697,16 +9697,16 @@
         <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>2.86</v>
+        <v>1.61</v>
       </c>
       <c r="K161" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="L161" t="n">
         <v>0</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N161" t="n">
         <v>0</v>
@@ -9726,16 +9726,16 @@
         <v>270</v>
       </c>
       <c r="D162" t="n">
-        <v>1.6</v>
+        <v>1.04</v>
       </c>
       <c r="E162" t="n">
-        <v>0.54</v>
+        <v>0.09</v>
       </c>
       <c r="F162" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9744,16 +9744,16 @@
         <v>0</v>
       </c>
       <c r="J162" t="n">
-        <v>2.28</v>
+        <v>1.33</v>
       </c>
       <c r="K162" t="n">
-        <v>0.64</v>
+        <v>0.16</v>
       </c>
       <c r="L162" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="M162" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="N162" t="n">
         <v>0</v>
@@ -9773,16 +9773,16 @@
         <v>271</v>
       </c>
       <c r="D163" t="n">
-        <v>1.36</v>
+        <v>0.63</v>
       </c>
       <c r="E163" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F163" t="n">
         <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9791,16 +9791,16 @@
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>2.47</v>
+        <v>1.65</v>
       </c>
       <c r="K163" t="n">
-        <v>0.8</v>
+        <v>0.14</v>
       </c>
       <c r="L163" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M163" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N163" t="n">
         <v>0</v>
@@ -9820,7 +9820,7 @@
         <v>272</v>
       </c>
       <c r="D164" t="n">
-        <v>1.04</v>
+        <v>0.22</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
@@ -9829,7 +9829,7 @@
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -9838,16 +9838,16 @@
         <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>2.38</v>
+        <v>1.5</v>
       </c>
       <c r="K164" t="n">
-        <v>0.73</v>
+        <v>0.13</v>
       </c>
       <c r="L164" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M164" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N164" t="n">
         <v>0</v>
@@ -9867,7 +9867,7 @@
         <v>273</v>
       </c>
       <c r="D165" t="n">
-        <v>1.03</v>
+        <v>0.31</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
@@ -9876,7 +9876,7 @@
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -9885,16 +9885,16 @@
         <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>1.37</v>
+        <v>0.56</v>
       </c>
       <c r="K165" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L165" t="n">
         <v>0</v>
       </c>
       <c r="M165" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N165" t="n">
         <v>0</v>
@@ -9914,16 +9914,16 @@
         <v>274</v>
       </c>
       <c r="D166" t="n">
-        <v>1.4</v>
+        <v>0.59</v>
       </c>
       <c r="E166" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -9932,16 +9932,16 @@
         <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>1.85</v>
+        <v>0.74</v>
       </c>
       <c r="K166" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="L166" t="n">
         <v>0</v>
       </c>
       <c r="M166" t="n">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="N166" t="n">
         <v>0</v>
@@ -9961,16 +9961,16 @@
         <v>275</v>
       </c>
       <c r="D167" t="n">
-        <v>2.04</v>
+        <v>1.49</v>
       </c>
       <c r="E167" t="n">
-        <v>0.83</v>
+        <v>0.26</v>
       </c>
       <c r="F167" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="G167" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -9979,16 +9979,16 @@
         <v>0</v>
       </c>
       <c r="J167" t="n">
-        <v>2.54</v>
+        <v>1.88</v>
       </c>
       <c r="K167" t="n">
-        <v>1.17</v>
+        <v>0.38</v>
       </c>
       <c r="L167" t="n">
-        <v>0.31</v>
+        <v>0.01</v>
       </c>
       <c r="M167" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="N167" t="n">
         <v>0</v>
@@ -10008,16 +10008,16 @@
         <v>276</v>
       </c>
       <c r="D168" t="n">
-        <v>1.43</v>
+        <v>0.64</v>
       </c>
       <c r="E168" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10026,16 +10026,16 @@
         <v>0</v>
       </c>
       <c r="J168" t="n">
-        <v>2.07</v>
+        <v>1.11</v>
       </c>
       <c r="K168" t="n">
-        <v>0.36</v>
+        <v>0.01</v>
       </c>
       <c r="L168" t="n">
         <v>0</v>
       </c>
       <c r="M168" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="N168" t="n">
         <v>0</v>
@@ -10064,7 +10064,7 @@
         <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10073,16 +10073,16 @@
         <v>0</v>
       </c>
       <c r="J169" t="n">
-        <v>2.07</v>
+        <v>0.87</v>
       </c>
       <c r="K169" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L169" t="n">
         <v>0</v>
       </c>
       <c r="M169" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="N169" t="n">
         <v>0</v>
@@ -10120,16 +10120,16 @@
         <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>1.85</v>
+        <v>0.61</v>
       </c>
       <c r="K170" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="L170" t="n">
         <v>0</v>
       </c>
       <c r="M170" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="N170" t="n">
         <v>0</v>
@@ -10149,13 +10149,13 @@
         <v>280</v>
       </c>
       <c r="D171" t="n">
-        <v>4.74</v>
+        <v>4.01</v>
       </c>
       <c r="E171" t="n">
-        <v>3.21</v>
+        <v>1.63</v>
       </c>
       <c r="F171" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="G171" t="n">
         <v>0</v>
@@ -10167,13 +10167,13 @@
         <v>0</v>
       </c>
       <c r="J171" t="n">
-        <v>6.2</v>
+        <v>4.96</v>
       </c>
       <c r="K171" t="n">
-        <v>3.98</v>
+        <v>1.48</v>
       </c>
       <c r="L171" t="n">
-        <v>1.61</v>
+        <v>0.06</v>
       </c>
       <c r="M171" t="n">
         <v>0</v>
@@ -10196,13 +10196,13 @@
         <v>281</v>
       </c>
       <c r="D172" t="n">
-        <v>4.21</v>
+        <v>3.6</v>
       </c>
       <c r="E172" t="n">
-        <v>2.62</v>
+        <v>1.36</v>
       </c>
       <c r="F172" t="n">
-        <v>0.88</v>
+        <v>0.04</v>
       </c>
       <c r="G172" t="n">
         <v>0</v>
@@ -10214,13 +10214,13 @@
         <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>4.3</v>
+        <v>3.16</v>
       </c>
       <c r="K172" t="n">
-        <v>1.87</v>
+        <v>0.41</v>
       </c>
       <c r="L172" t="n">
-        <v>0.23</v>
+        <v>0.01</v>
       </c>
       <c r="M172" t="n">
         <v>0</v>
@@ -10243,13 +10243,13 @@
         <v>282</v>
       </c>
       <c r="D173" t="n">
-        <v>4.28</v>
+        <v>3.64</v>
       </c>
       <c r="E173" t="n">
-        <v>2.39</v>
+        <v>1.04</v>
       </c>
       <c r="F173" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
@@ -10261,13 +10261,13 @@
         <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>4.84</v>
+        <v>3.98</v>
       </c>
       <c r="K173" t="n">
-        <v>2.37</v>
+        <v>0.81</v>
       </c>
       <c r="L173" t="n">
-        <v>0.29</v>
+        <v>0.01</v>
       </c>
       <c r="M173" t="n">
         <v>0</v>
@@ -10308,16 +10308,16 @@
         <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>2.53</v>
+        <v>1.55</v>
       </c>
       <c r="K174" t="n">
-        <v>0.65</v>
+        <v>0.02</v>
       </c>
       <c r="L174" t="n">
         <v>0</v>
       </c>
       <c r="M174" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="N174" t="n">
         <v>0</v>
@@ -10337,13 +10337,13 @@
         <v>284</v>
       </c>
       <c r="D175" t="n">
-        <v>4.48</v>
+        <v>3.87</v>
       </c>
       <c r="E175" t="n">
-        <v>2.76</v>
+        <v>1.43</v>
       </c>
       <c r="F175" t="n">
-        <v>0.93</v>
+        <v>0.02</v>
       </c>
       <c r="G175" t="n">
         <v>0</v>
@@ -10355,13 +10355,13 @@
         <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>7.87</v>
+        <v>6.81</v>
       </c>
       <c r="K175" t="n">
-        <v>5.47</v>
+        <v>3.28</v>
       </c>
       <c r="L175" t="n">
-        <v>2.83</v>
+        <v>0.72</v>
       </c>
       <c r="M175" t="n">
         <v>0</v>
@@ -10384,13 +10384,13 @@
         <v>285</v>
       </c>
       <c r="D176" t="n">
-        <v>4.23</v>
+        <v>3.48</v>
       </c>
       <c r="E176" t="n">
-        <v>2.06</v>
+        <v>0.51</v>
       </c>
       <c r="F176" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="G176" t="n">
         <v>0</v>
@@ -10402,16 +10402,16 @@
         <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>5.21</v>
+        <v>4.26</v>
       </c>
       <c r="K176" t="n">
-        <v>2.88</v>
+        <v>1.09</v>
       </c>
       <c r="L176" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="M176" t="n">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="N176" t="n">
         <v>0</v>
@@ -10431,13 +10431,13 @@
         <v>286</v>
       </c>
       <c r="D177" t="n">
-        <v>3.6</v>
+        <v>2.93</v>
       </c>
       <c r="E177" t="n">
-        <v>1.89</v>
+        <v>0.45</v>
       </c>
       <c r="F177" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="G177" t="n">
         <v>0</v>
@@ -10449,16 +10449,16 @@
         <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>3.52</v>
+        <v>2.75</v>
       </c>
       <c r="K177" t="n">
-        <v>1.63</v>
+        <v>0.47</v>
       </c>
       <c r="L177" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="M177" t="n">
-        <v>0.56</v>
+        <v>0</v>
       </c>
       <c r="N177" t="n">
         <v>0</v>
@@ -10478,13 +10478,13 @@
         <v>287</v>
       </c>
       <c r="D178" t="n">
-        <v>3.95</v>
+        <v>3.13</v>
       </c>
       <c r="E178" t="n">
-        <v>1.71</v>
+        <v>0.37</v>
       </c>
       <c r="F178" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G178" t="n">
         <v>0</v>
@@ -10496,13 +10496,13 @@
         <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>4.4</v>
+        <v>3.43</v>
       </c>
       <c r="K178" t="n">
-        <v>2.29</v>
+        <v>0.76</v>
       </c>
       <c r="L178" t="n">
-        <v>0.59</v>
+        <v>0.02</v>
       </c>
       <c r="M178" t="n">
         <v>0</v>
@@ -10637,16 +10637,16 @@
         <v>0</v>
       </c>
       <c r="J181" t="n">
-        <v>4.34</v>
+        <v>1.86</v>
       </c>
       <c r="K181" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="L181" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="M181" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N181" t="n">
         <v>0</v>
@@ -10693,7 +10693,7 @@
         <v>0</v>
       </c>
       <c r="M182" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N182" t="n">
         <v>0</v>
@@ -10807,16 +10807,16 @@
         <v>296</v>
       </c>
       <c r="D185" t="n">
-        <v>2.4</v>
+        <v>1.97</v>
       </c>
       <c r="E185" t="n">
-        <v>1.01</v>
+        <v>0.44</v>
       </c>
       <c r="F185" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="G185" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -10825,16 +10825,16 @@
         <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>1.99</v>
+        <v>1.03</v>
       </c>
       <c r="K185" t="n">
-        <v>0.17</v>
+        <v>0.03</v>
       </c>
       <c r="L185" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M185" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="N185" t="n">
         <v>0</v>
@@ -10854,16 +10854,16 @@
         <v>297</v>
       </c>
       <c r="D186" t="n">
-        <v>2.63</v>
+        <v>2.15</v>
       </c>
       <c r="E186" t="n">
-        <v>1.18</v>
+        <v>0.47</v>
       </c>
       <c r="F186" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="G186" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -10872,16 +10872,16 @@
         <v>0</v>
       </c>
       <c r="J186" t="n">
-        <v>2.02</v>
+        <v>0.83</v>
       </c>
       <c r="K186" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L186" t="n">
         <v>0</v>
       </c>
       <c r="M186" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="N186" t="n">
         <v>0</v>
@@ -10901,16 +10901,16 @@
         <v>298</v>
       </c>
       <c r="D187" t="n">
-        <v>2.7</v>
+        <v>2.29</v>
       </c>
       <c r="E187" t="n">
-        <v>1.43</v>
+        <v>0.85</v>
       </c>
       <c r="F187" t="n">
-        <v>0.47</v>
+        <v>0.1</v>
       </c>
       <c r="G187" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -10919,16 +10919,16 @@
         <v>0</v>
       </c>
       <c r="J187" t="n">
-        <v>1.5</v>
+        <v>0.32</v>
       </c>
       <c r="K187" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L187" t="n">
         <v>0</v>
       </c>
       <c r="M187" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="N187" t="n">
         <v>0</v>
@@ -10948,16 +10948,16 @@
         <v>299</v>
       </c>
       <c r="D188" t="n">
-        <v>2.97</v>
+        <v>2.59</v>
       </c>
       <c r="E188" t="n">
-        <v>1.56</v>
+        <v>0.94</v>
       </c>
       <c r="F188" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="G188" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -10966,16 +10966,16 @@
         <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>2.67</v>
+        <v>1.31</v>
       </c>
       <c r="K188" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="L188" t="n">
         <v>0</v>
       </c>
       <c r="M188" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="N188" t="n">
         <v>0</v>
@@ -10995,16 +10995,16 @@
         <v>300</v>
       </c>
       <c r="D189" t="n">
-        <v>2.34</v>
+        <v>1.86</v>
       </c>
       <c r="E189" t="n">
-        <v>1</v>
+        <v>0.53</v>
       </c>
       <c r="F189" t="n">
-        <v>0.27</v>
+        <v>0.04</v>
       </c>
       <c r="G189" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11013,16 +11013,16 @@
         <v>0</v>
       </c>
       <c r="J189" t="n">
-        <v>2.59</v>
+        <v>1.61</v>
       </c>
       <c r="K189" t="n">
-        <v>0.67</v>
+        <v>0.13</v>
       </c>
       <c r="L189" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M189" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="N189" t="n">
         <v>0</v>
@@ -11060,16 +11060,16 @@
         <v>0</v>
       </c>
       <c r="J190" t="n">
-        <v>1.95</v>
+        <v>1.02</v>
       </c>
       <c r="K190" t="n">
-        <v>0.26</v>
+        <v>0.02</v>
       </c>
       <c r="L190" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M190" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="N190" t="n">
         <v>0</v>
@@ -11089,16 +11089,16 @@
         <v>302</v>
       </c>
       <c r="D191" t="n">
-        <v>2.02</v>
+        <v>1.56</v>
       </c>
       <c r="E191" t="n">
-        <v>0.91</v>
+        <v>0.35</v>
       </c>
       <c r="F191" t="n">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="G191" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11107,16 +11107,16 @@
         <v>0</v>
       </c>
       <c r="J191" t="n">
-        <v>1.75</v>
+        <v>0.61</v>
       </c>
       <c r="K191" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L191" t="n">
         <v>0</v>
       </c>
       <c r="M191" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="N191" t="n">
         <v>0</v>
@@ -11201,16 +11201,16 @@
         <v>0</v>
       </c>
       <c r="J193" t="n">
-        <v>2.62</v>
+        <v>1.27</v>
       </c>
       <c r="K193" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="L193" t="n">
         <v>0</v>
       </c>
       <c r="M193" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="N193" t="n">
         <v>0</v>
@@ -11577,7 +11577,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="n">
-        <v>2.52</v>
+        <v>0.82</v>
       </c>
       <c r="K201" t="n">
         <v>0</v>
@@ -11586,7 +11586,7 @@
         <v>0</v>
       </c>
       <c r="M201" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="N201" t="n">
         <v>0</v>
@@ -11624,16 +11624,16 @@
         <v>0</v>
       </c>
       <c r="J202" t="n">
-        <v>3.01</v>
+        <v>1.48</v>
       </c>
       <c r="K202" t="n">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="L202" t="n">
         <v>0</v>
       </c>
       <c r="M202" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N202" t="n">
         <v>0</v>
@@ -11765,7 +11765,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>2.02</v>
+        <v>0.89</v>
       </c>
       <c r="K205" t="n">
         <v>0</v>
@@ -11774,7 +11774,7 @@
         <v>0</v>
       </c>
       <c r="M205" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N205" t="n">
         <v>0</v>
@@ -11906,16 +11906,16 @@
         <v>0</v>
       </c>
       <c r="J208" t="n">
-        <v>2.71</v>
+        <v>1.35</v>
       </c>
       <c r="K208" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="L208" t="n">
         <v>0</v>
       </c>
       <c r="M208" t="n">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="N208" t="n">
         <v>0</v>
@@ -11953,7 +11953,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="n">
-        <v>1.18</v>
+        <v>0.11</v>
       </c>
       <c r="K209" t="n">
         <v>0</v>
@@ -11962,7 +11962,7 @@
         <v>0</v>
       </c>
       <c r="M209" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N209" t="n">
         <v>0</v>
@@ -11991,7 +11991,7 @@
         <v>0</v>
       </c>
       <c r="G210" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12029,7 +12029,7 @@
         <v>324</v>
       </c>
       <c r="D211" t="n">
-        <v>1.56</v>
+        <v>0.56</v>
       </c>
       <c r="E211" t="n">
         <v>0</v>
@@ -12038,7 +12038,7 @@
         <v>0</v>
       </c>
       <c r="G211" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12047,16 +12047,16 @@
         <v>0</v>
       </c>
       <c r="J211" t="n">
-        <v>2.17</v>
+        <v>1.03</v>
       </c>
       <c r="K211" t="n">
-        <v>0.14</v>
+        <v>0.03</v>
       </c>
       <c r="L211" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M211" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="N211" t="n">
         <v>0</v>
@@ -12076,7 +12076,7 @@
         <v>325</v>
       </c>
       <c r="D212" t="n">
-        <v>1.57</v>
+        <v>0.07</v>
       </c>
       <c r="E212" t="n">
         <v>0</v>
@@ -12085,7 +12085,7 @@
         <v>0</v>
       </c>
       <c r="G212" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12094,7 +12094,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="n">
-        <v>1.65</v>
+        <v>0.51</v>
       </c>
       <c r="K212" t="n">
         <v>0</v>
@@ -12103,7 +12103,7 @@
         <v>0</v>
       </c>
       <c r="M212" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N212" t="n">
         <v>0</v>
@@ -12123,7 +12123,7 @@
         <v>326</v>
       </c>
       <c r="D213" t="n">
-        <v>2.2</v>
+        <v>0.82</v>
       </c>
       <c r="E213" t="n">
         <v>0</v>
@@ -12132,7 +12132,7 @@
         <v>0</v>
       </c>
       <c r="G213" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12141,7 +12141,7 @@
         <v>0</v>
       </c>
       <c r="J213" t="n">
-        <v>1.76</v>
+        <v>0.54</v>
       </c>
       <c r="K213" t="n">
         <v>0</v>
@@ -12150,7 +12150,7 @@
         <v>0</v>
       </c>
       <c r="M213" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N213" t="n">
         <v>0</v>
@@ -12170,7 +12170,7 @@
         <v>327</v>
       </c>
       <c r="D214" t="n">
-        <v>1.9</v>
+        <v>0.61</v>
       </c>
       <c r="E214" t="n">
         <v>0</v>
@@ -12179,7 +12179,7 @@
         <v>0</v>
       </c>
       <c r="G214" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12188,16 +12188,16 @@
         <v>0</v>
       </c>
       <c r="J214" t="n">
-        <v>3.15</v>
+        <v>0.78</v>
       </c>
       <c r="K214" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="L214" t="n">
         <v>0</v>
       </c>
       <c r="M214" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N214" t="n">
         <v>0</v>
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="M215" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N215" t="n">
         <v>0</v>
@@ -12282,7 +12282,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="n">
-        <v>1.86</v>
+        <v>0.38</v>
       </c>
       <c r="K216" t="n">
         <v>0</v>
@@ -12291,7 +12291,7 @@
         <v>0</v>
       </c>
       <c r="M216" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N216" t="n">
         <v>0</v>
@@ -12311,7 +12311,7 @@
         <v>330</v>
       </c>
       <c r="D217" t="n">
-        <v>1.38</v>
+        <v>0.15</v>
       </c>
       <c r="E217" t="n">
         <v>0</v>
@@ -12329,7 +12329,7 @@
         <v>0</v>
       </c>
       <c r="J217" t="n">
-        <v>1.65</v>
+        <v>0.52</v>
       </c>
       <c r="K217" t="n">
         <v>0</v>
@@ -12338,7 +12338,7 @@
         <v>0</v>
       </c>
       <c r="M217" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N217" t="n">
         <v>0</v>
@@ -12376,7 +12376,7 @@
         <v>0</v>
       </c>
       <c r="J218" t="n">
-        <v>1.34</v>
+        <v>0.08</v>
       </c>
       <c r="K218" t="n">
         <v>0</v>
@@ -12385,7 +12385,7 @@
         <v>0</v>
       </c>
       <c r="M218" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N218" t="n">
         <v>0</v>
@@ -12423,7 +12423,7 @@
         <v>0</v>
       </c>
       <c r="J219" t="n">
-        <v>1.32</v>
+        <v>0.08</v>
       </c>
       <c r="K219" t="n">
         <v>0</v>
@@ -12432,7 +12432,7 @@
         <v>0</v>
       </c>
       <c r="M219" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N219" t="n">
         <v>0</v>
@@ -12452,13 +12452,13 @@
         <v>334</v>
       </c>
       <c r="D220" t="n">
-        <v>3.8</v>
+        <v>3.02</v>
       </c>
       <c r="E220" t="n">
-        <v>1.99</v>
+        <v>1.13</v>
       </c>
       <c r="F220" t="n">
-        <v>0.96</v>
+        <v>0.23</v>
       </c>
       <c r="G220" t="n">
         <v>0</v>
@@ -12470,16 +12470,16 @@
         <v>0</v>
       </c>
       <c r="J220" t="n">
-        <v>4.66</v>
+        <v>3.85</v>
       </c>
       <c r="K220" t="n">
-        <v>2.4</v>
+        <v>1.22</v>
       </c>
       <c r="L220" t="n">
-        <v>0.8</v>
+        <v>0.15</v>
       </c>
       <c r="M220" t="n">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="N220" t="n">
         <v>0</v>
@@ -12499,16 +12499,16 @@
         <v>335</v>
       </c>
       <c r="D221" t="n">
-        <v>2.77</v>
+        <v>2</v>
       </c>
       <c r="E221" t="n">
-        <v>0.55</v>
+        <v>0.02</v>
       </c>
       <c r="F221" t="n">
         <v>0</v>
       </c>
       <c r="G221" t="n">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -12517,16 +12517,16 @@
         <v>0</v>
       </c>
       <c r="J221" t="n">
-        <v>3.44</v>
+        <v>2.47</v>
       </c>
       <c r="K221" t="n">
-        <v>1.01</v>
+        <v>0.23</v>
       </c>
       <c r="L221" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="M221" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="N221" t="n">
         <v>0</v>
@@ -12546,16 +12546,16 @@
         <v>336</v>
       </c>
       <c r="D222" t="n">
-        <v>3.33</v>
+        <v>2.49</v>
       </c>
       <c r="E222" t="n">
-        <v>1.3</v>
+        <v>0.52</v>
       </c>
       <c r="F222" t="n">
-        <v>0.37</v>
+        <v>0.07</v>
       </c>
       <c r="G222" t="n">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -12564,16 +12564,16 @@
         <v>0</v>
       </c>
       <c r="J222" t="n">
-        <v>3.91</v>
+        <v>2.92</v>
       </c>
       <c r="K222" t="n">
-        <v>1.27</v>
+        <v>0.31</v>
       </c>
       <c r="L222" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="M222" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="N222" t="n">
         <v>0</v>
@@ -12593,13 +12593,13 @@
         <v>337</v>
       </c>
       <c r="D223" t="n">
-        <v>2.9</v>
+        <v>2.19</v>
       </c>
       <c r="E223" t="n">
-        <v>0.72</v>
+        <v>0.18</v>
       </c>
       <c r="F223" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="G223" t="n">
         <v>0</v>
@@ -12611,16 +12611,16 @@
         <v>0</v>
       </c>
       <c r="J223" t="n">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="K223" t="n">
-        <v>0.73</v>
+        <v>0.23</v>
       </c>
       <c r="L223" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="M223" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N223" t="n">
         <v>0</v>
@@ -12640,16 +12640,16 @@
         <v>338</v>
       </c>
       <c r="D224" t="n">
-        <v>2.67</v>
+        <v>1.82</v>
       </c>
       <c r="E224" t="n">
-        <v>0.56</v>
+        <v>0.08</v>
       </c>
       <c r="F224" t="n">
         <v>0</v>
       </c>
       <c r="G224" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -12658,16 +12658,16 @@
         <v>0</v>
       </c>
       <c r="J224" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="K224" t="n">
-        <v>0.53</v>
+        <v>0.14</v>
       </c>
       <c r="L224" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M224" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N224" t="n">
         <v>0</v>
@@ -12687,16 +12687,16 @@
         <v>339</v>
       </c>
       <c r="D225" t="n">
-        <v>3.23</v>
+        <v>2.21</v>
       </c>
       <c r="E225" t="n">
-        <v>0.96</v>
+        <v>0.28</v>
       </c>
       <c r="F225" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G225" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -12705,16 +12705,16 @@
         <v>0</v>
       </c>
       <c r="J225" t="n">
-        <v>3.89</v>
+        <v>2.91</v>
       </c>
       <c r="K225" t="n">
-        <v>1.31</v>
+        <v>0.49</v>
       </c>
       <c r="L225" t="n">
-        <v>0.28</v>
+        <v>0.04</v>
       </c>
       <c r="M225" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="N225" t="n">
         <v>0</v>
@@ -12734,13 +12734,13 @@
         <v>341</v>
       </c>
       <c r="D226" t="n">
-        <v>6.99</v>
+        <v>6.49</v>
       </c>
       <c r="E226" t="n">
-        <v>5.41</v>
+        <v>4.33</v>
       </c>
       <c r="F226" t="n">
-        <v>3.57</v>
+        <v>1.8</v>
       </c>
       <c r="G226" t="n">
         <v>0</v>
@@ -12752,16 +12752,16 @@
         <v>0</v>
       </c>
       <c r="J226" t="n">
-        <v>5.08</v>
+        <v>4.41</v>
       </c>
       <c r="K226" t="n">
-        <v>3.23</v>
+        <v>1.94</v>
       </c>
       <c r="L226" t="n">
-        <v>1.29</v>
+        <v>0.19</v>
       </c>
       <c r="M226" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N226" t="n">
         <v>0</v>
@@ -12781,16 +12781,16 @@
         <v>342</v>
       </c>
       <c r="D227" t="n">
-        <v>5.73</v>
+        <v>5</v>
       </c>
       <c r="E227" t="n">
-        <v>3.65</v>
+        <v>2.42</v>
       </c>
       <c r="F227" t="n">
-        <v>1.76</v>
+        <v>0.58</v>
       </c>
       <c r="G227" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -12799,16 +12799,16 @@
         <v>0</v>
       </c>
       <c r="J227" t="n">
-        <v>4.01</v>
+        <v>3.15</v>
       </c>
       <c r="K227" t="n">
-        <v>1.92</v>
+        <v>0.73</v>
       </c>
       <c r="L227" t="n">
-        <v>0.45</v>
+        <v>0.06</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N227" t="n">
         <v>0</v>
@@ -12846,7 +12846,7 @@
         <v>0</v>
       </c>
       <c r="J228" t="n">
-        <v>1.85</v>
+        <v>0.43</v>
       </c>
       <c r="K228" t="n">
         <v>0</v>
@@ -12855,7 +12855,7 @@
         <v>0</v>
       </c>
       <c r="M228" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N228" t="n">
         <v>0</v>
@@ -12875,7 +12875,7 @@
         <v>344</v>
       </c>
       <c r="D229" t="n">
-        <v>1.56</v>
+        <v>0.57</v>
       </c>
       <c r="E229" t="n">
         <v>0</v>
@@ -12884,7 +12884,7 @@
         <v>0</v>
       </c>
       <c r="G229" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -12893,7 +12893,7 @@
         <v>0</v>
       </c>
       <c r="J229" t="n">
-        <v>1.98</v>
+        <v>0.8</v>
       </c>
       <c r="K229" t="n">
         <v>0</v>
@@ -12902,7 +12902,7 @@
         <v>0</v>
       </c>
       <c r="M229" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="N229" t="n">
         <v>0</v>
@@ -12922,34 +12922,34 @@
         <v>345</v>
       </c>
       <c r="D230" t="n">
-        <v>2.43</v>
+        <v>1.39</v>
       </c>
       <c r="E230" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="F230" t="n">
         <v>0</v>
       </c>
       <c r="G230" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="H230" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
       <c r="J230" t="n">
-        <v>2.29</v>
+        <v>1.05</v>
       </c>
       <c r="K230" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="L230" t="n">
         <v>0</v>
       </c>
       <c r="M230" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N230" t="n">
         <v>0</v>
@@ -12969,7 +12969,7 @@
         <v>346</v>
       </c>
       <c r="D231" t="n">
-        <v>1.01</v>
+        <v>0.22</v>
       </c>
       <c r="E231" t="n">
         <v>0</v>
@@ -12987,16 +12987,16 @@
         <v>0</v>
       </c>
       <c r="J231" t="n">
-        <v>2.51</v>
+        <v>1.33</v>
       </c>
       <c r="K231" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="L231" t="n">
         <v>0</v>
       </c>
       <c r="M231" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N231" t="n">
         <v>0</v>
@@ -13016,16 +13016,16 @@
         <v>348</v>
       </c>
       <c r="D232" t="n">
-        <v>5.8</v>
+        <v>5.16</v>
       </c>
       <c r="E232" t="n">
-        <v>4.26</v>
+        <v>3.17</v>
       </c>
       <c r="F232" t="n">
-        <v>2.77</v>
+        <v>1.39</v>
       </c>
       <c r="G232" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -13034,13 +13034,13 @@
         <v>0</v>
       </c>
       <c r="J232" t="n">
-        <v>7.61</v>
+        <v>6.92</v>
       </c>
       <c r="K232" t="n">
-        <v>5.79</v>
+        <v>4.39</v>
       </c>
       <c r="L232" t="n">
-        <v>3.78</v>
+        <v>2.04</v>
       </c>
       <c r="M232" t="n">
         <v>0</v>
@@ -13063,16 +13063,16 @@
         <v>349</v>
       </c>
       <c r="D233" t="n">
-        <v>2.78</v>
+        <v>2.15</v>
       </c>
       <c r="E233" t="n">
-        <v>1.36</v>
+        <v>0.46</v>
       </c>
       <c r="F233" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="G233" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -13081,13 +13081,13 @@
         <v>0</v>
       </c>
       <c r="J233" t="n">
-        <v>3.52</v>
+        <v>2.77</v>
       </c>
       <c r="K233" t="n">
-        <v>1.96</v>
+        <v>0.64</v>
       </c>
       <c r="L233" t="n">
-        <v>0.51</v>
+        <v>0.03</v>
       </c>
       <c r="M233" t="n">
         <v>0</v>
@@ -13110,13 +13110,13 @@
         <v>350</v>
       </c>
       <c r="D234" t="n">
-        <v>5.34</v>
+        <v>4.79</v>
       </c>
       <c r="E234" t="n">
-        <v>3.92</v>
+        <v>2.74</v>
       </c>
       <c r="F234" t="n">
-        <v>2.31</v>
+        <v>1</v>
       </c>
       <c r="G234" t="n">
         <v>0</v>
@@ -13128,13 +13128,13 @@
         <v>0</v>
       </c>
       <c r="J234" t="n">
-        <v>5.49</v>
+        <v>4.83</v>
       </c>
       <c r="K234" t="n">
-        <v>3.59</v>
+        <v>2.29</v>
       </c>
       <c r="L234" t="n">
-        <v>1.65</v>
+        <v>0.49</v>
       </c>
       <c r="M234" t="n">
         <v>0</v>
@@ -13157,13 +13157,13 @@
         <v>351</v>
       </c>
       <c r="D235" t="n">
-        <v>3.39</v>
+        <v>2.79</v>
       </c>
       <c r="E235" t="n">
-        <v>2.14</v>
+        <v>0.97</v>
       </c>
       <c r="F235" t="n">
-        <v>0.81</v>
+        <v>0.08</v>
       </c>
       <c r="G235" t="n">
         <v>0</v>
@@ -13175,13 +13175,13 @@
         <v>0</v>
       </c>
       <c r="J235" t="n">
-        <v>4.56</v>
+        <v>3.83</v>
       </c>
       <c r="K235" t="n">
-        <v>2.72</v>
+        <v>1.42</v>
       </c>
       <c r="L235" t="n">
-        <v>1.09</v>
+        <v>0.26</v>
       </c>
       <c r="M235" t="n">
         <v>0</v>
@@ -13204,16 +13204,16 @@
         <v>353</v>
       </c>
       <c r="D236" t="n">
-        <v>1.53</v>
+        <v>1.1</v>
       </c>
       <c r="E236" t="n">
-        <v>0.36</v>
+        <v>0.11</v>
       </c>
       <c r="F236" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G236" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -13222,16 +13222,16 @@
         <v>0</v>
       </c>
       <c r="J236" t="n">
-        <v>3.74</v>
+        <v>2.78</v>
       </c>
       <c r="K236" t="n">
-        <v>1.49</v>
+        <v>0.37</v>
       </c>
       <c r="L236" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="M236" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N236" t="n">
         <v>0</v>
@@ -13251,7 +13251,7 @@
         <v>354</v>
       </c>
       <c r="D237" t="n">
-        <v>1.21</v>
+        <v>0.36</v>
       </c>
       <c r="E237" t="n">
         <v>0</v>
@@ -13260,7 +13260,7 @@
         <v>0</v>
       </c>
       <c r="G237" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -13269,7 +13269,7 @@
         <v>0</v>
       </c>
       <c r="J237" t="n">
-        <v>1.89</v>
+        <v>0.89</v>
       </c>
       <c r="K237" t="n">
         <v>0</v>
@@ -13278,7 +13278,7 @@
         <v>0</v>
       </c>
       <c r="M237" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N237" t="n">
         <v>0</v>
@@ -13298,7 +13298,7 @@
         <v>355</v>
       </c>
       <c r="D238" t="n">
-        <v>1.93</v>
+        <v>0.82</v>
       </c>
       <c r="E238" t="n">
         <v>0</v>
@@ -13307,7 +13307,7 @@
         <v>0</v>
       </c>
       <c r="G238" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -13316,7 +13316,7 @@
         <v>0</v>
       </c>
       <c r="J238" t="n">
-        <v>1.46</v>
+        <v>0.45</v>
       </c>
       <c r="K238" t="n">
         <v>0</v>
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="M238" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N238" t="n">
         <v>0</v>
@@ -13354,7 +13354,7 @@
         <v>0</v>
       </c>
       <c r="G239" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -13372,7 +13372,7 @@
         <v>0</v>
       </c>
       <c r="M239" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N239" t="n">
         <v>0</v>
@@ -13419,7 +13419,7 @@
         <v>0</v>
       </c>
       <c r="M240" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N240" t="n">
         <v>0</v>
@@ -13439,16 +13439,16 @@
         <v>359</v>
       </c>
       <c r="D241" t="n">
-        <v>1.39</v>
+        <v>0.66</v>
       </c>
       <c r="E241" t="n">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
       </c>
       <c r="G241" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -13457,16 +13457,16 @@
         <v>0</v>
       </c>
       <c r="J241" t="n">
-        <v>1.92</v>
+        <v>0.86</v>
       </c>
       <c r="K241" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L241" t="n">
         <v>0</v>
       </c>
       <c r="M241" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="N241" t="n">
         <v>0</v>
@@ -13486,16 +13486,16 @@
         <v>360</v>
       </c>
       <c r="D242" t="n">
-        <v>2.35</v>
+        <v>1.71</v>
       </c>
       <c r="E242" t="n">
-        <v>0.77</v>
+        <v>0.31</v>
       </c>
       <c r="F242" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="G242" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -13504,16 +13504,16 @@
         <v>0</v>
       </c>
       <c r="J242" t="n">
-        <v>3.23</v>
+        <v>2.17</v>
       </c>
       <c r="K242" t="n">
-        <v>0.75</v>
+        <v>0.09</v>
       </c>
       <c r="L242" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M242" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="N242" t="n">
         <v>0</v>
@@ -13533,16 +13533,16 @@
         <v>361</v>
       </c>
       <c r="D243" t="n">
-        <v>1.75</v>
+        <v>0.96</v>
       </c>
       <c r="E243" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="F243" t="n">
         <v>0</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -13551,16 +13551,16 @@
         <v>0</v>
       </c>
       <c r="J243" t="n">
-        <v>3.41</v>
+        <v>2.43</v>
       </c>
       <c r="K243" t="n">
-        <v>1.28</v>
+        <v>0.36</v>
       </c>
       <c r="L243" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="M243" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N243" t="n">
         <v>0</v>
@@ -13580,7 +13580,7 @@
         <v>362</v>
       </c>
       <c r="D244" t="n">
-        <v>1.55</v>
+        <v>0.18</v>
       </c>
       <c r="E244" t="n">
         <v>0</v>
@@ -13598,16 +13598,16 @@
         <v>0</v>
       </c>
       <c r="J244" t="n">
-        <v>3.7</v>
+        <v>2.54</v>
       </c>
       <c r="K244" t="n">
-        <v>1.09</v>
+        <v>0.24</v>
       </c>
       <c r="L244" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="M244" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N244" t="n">
         <v>0</v>
@@ -13627,16 +13627,16 @@
         <v>363</v>
       </c>
       <c r="D245" t="n">
-        <v>1.51</v>
+        <v>0.94</v>
       </c>
       <c r="E245" t="n">
-        <v>0.35</v>
+        <v>0.06</v>
       </c>
       <c r="F245" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G245" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -13645,16 +13645,16 @@
         <v>0</v>
       </c>
       <c r="J245" t="n">
-        <v>2.05</v>
+        <v>0.85</v>
       </c>
       <c r="K245" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L245" t="n">
         <v>0</v>
       </c>
       <c r="M245" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N245" t="n">
         <v>0</v>
@@ -13674,16 +13674,16 @@
         <v>364</v>
       </c>
       <c r="D246" t="n">
-        <v>1.18</v>
+        <v>0.55</v>
       </c>
       <c r="E246" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F246" t="n">
         <v>0</v>
       </c>
       <c r="G246" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -13692,16 +13692,16 @@
         <v>0</v>
       </c>
       <c r="J246" t="n">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="K246" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="L246" t="n">
         <v>0</v>
       </c>
       <c r="M246" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N246" t="n">
         <v>0</v>
@@ -13721,10 +13721,10 @@
         <v>366</v>
       </c>
       <c r="D247" t="n">
-        <v>3.16</v>
+        <v>1.86</v>
       </c>
       <c r="E247" t="n">
-        <v>0.45</v>
+        <v>0.01</v>
       </c>
       <c r="F247" t="n">
         <v>0</v>
@@ -13739,16 +13739,16 @@
         <v>0</v>
       </c>
       <c r="J247" t="n">
-        <v>2.61</v>
+        <v>1.32</v>
       </c>
       <c r="K247" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="L247" t="n">
         <v>0</v>
       </c>
       <c r="M247" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N247" t="n">
         <v>0</v>
@@ -13768,16 +13768,16 @@
         <v>367</v>
       </c>
       <c r="D248" t="n">
-        <v>2.65</v>
+        <v>1.24</v>
       </c>
       <c r="E248" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="F248" t="n">
         <v>0</v>
       </c>
       <c r="G248" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -13786,16 +13786,16 @@
         <v>0</v>
       </c>
       <c r="J248" t="n">
-        <v>2.13</v>
+        <v>0.84</v>
       </c>
       <c r="K248" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L248" t="n">
         <v>0</v>
       </c>
       <c r="M248" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N248" t="n">
         <v>0</v>
@@ -13815,7 +13815,7 @@
         <v>368</v>
       </c>
       <c r="D249" t="n">
-        <v>1.68</v>
+        <v>0.28</v>
       </c>
       <c r="E249" t="n">
         <v>0</v>
@@ -13824,7 +13824,7 @@
         <v>0</v>
       </c>
       <c r="G249" t="n">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -13833,7 +13833,7 @@
         <v>0</v>
       </c>
       <c r="J249" t="n">
-        <v>1.69</v>
+        <v>0.42</v>
       </c>
       <c r="K249" t="n">
         <v>0</v>
@@ -13842,7 +13842,7 @@
         <v>0</v>
       </c>
       <c r="M249" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N249" t="n">
         <v>0</v>
@@ -13862,13 +13862,13 @@
         <v>370</v>
       </c>
       <c r="D250" t="n">
-        <v>2.99</v>
+        <v>2.44</v>
       </c>
       <c r="E250" t="n">
-        <v>1.24</v>
+        <v>0.46</v>
       </c>
       <c r="F250" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="G250" t="n">
         <v>0</v>
@@ -13880,16 +13880,16 @@
         <v>0</v>
       </c>
       <c r="J250" t="n">
-        <v>3.37</v>
+        <v>2.37</v>
       </c>
       <c r="K250" t="n">
-        <v>1.34</v>
+        <v>0.65</v>
       </c>
       <c r="L250" t="n">
-        <v>0.42</v>
+        <v>0.08</v>
       </c>
       <c r="M250" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="N250" t="n">
         <v>0</v>
@@ -13909,7 +13909,7 @@
         <v>371</v>
       </c>
       <c r="D251" t="n">
-        <v>1.89</v>
+        <v>0.41</v>
       </c>
       <c r="E251" t="n">
         <v>0</v>
@@ -13918,7 +13918,7 @@
         <v>0</v>
       </c>
       <c r="G251" t="n">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -13927,16 +13927,16 @@
         <v>0</v>
       </c>
       <c r="J251" t="n">
-        <v>2.29</v>
+        <v>0.99</v>
       </c>
       <c r="K251" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="L251" t="n">
         <v>0</v>
       </c>
       <c r="M251" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N251" t="n">
         <v>0</v>
@@ -13956,13 +13956,13 @@
         <v>372</v>
       </c>
       <c r="D252" t="n">
-        <v>6.82</v>
+        <v>6.17</v>
       </c>
       <c r="E252" t="n">
-        <v>4.83</v>
+        <v>3.44</v>
       </c>
       <c r="F252" t="n">
-        <v>2.73</v>
+        <v>1.6</v>
       </c>
       <c r="G252" t="n">
         <v>0</v>
@@ -13974,16 +13974,16 @@
         <v>0</v>
       </c>
       <c r="J252" t="n">
-        <v>5.35</v>
+        <v>4.61</v>
       </c>
       <c r="K252" t="n">
-        <v>3.39</v>
+        <v>2.11</v>
       </c>
       <c r="L252" t="n">
-        <v>1.55</v>
+        <v>0.6</v>
       </c>
       <c r="M252" t="n">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="N252" t="n">
         <v>0</v>
@@ -14021,16 +14021,16 @@
         <v>0</v>
       </c>
       <c r="J253" t="n">
-        <v>2.99</v>
+        <v>2.26</v>
       </c>
       <c r="K253" t="n">
-        <v>1.48</v>
+        <v>0.62</v>
       </c>
       <c r="L253" t="n">
-        <v>0.45</v>
+        <v>0.04</v>
       </c>
       <c r="M253" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N253" t="n">
         <v>0</v>
@@ -14050,16 +14050,16 @@
         <v>374</v>
       </c>
       <c r="D254" t="n">
-        <v>2.83</v>
+        <v>2.31</v>
       </c>
       <c r="E254" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="F254" t="n">
-        <v>0.61</v>
+        <v>0.12</v>
       </c>
       <c r="G254" t="n">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -14068,16 +14068,16 @@
         <v>0</v>
       </c>
       <c r="J254" t="n">
-        <v>3.77</v>
+        <v>3.14</v>
       </c>
       <c r="K254" t="n">
-        <v>2.13</v>
+        <v>1.35</v>
       </c>
       <c r="L254" t="n">
-        <v>1.01</v>
+        <v>0.31</v>
       </c>
       <c r="M254" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="N254" t="n">
         <v>0</v>
@@ -14097,13 +14097,13 @@
         <v>375</v>
       </c>
       <c r="D255" t="n">
-        <v>4.89</v>
+        <v>4.38</v>
       </c>
       <c r="E255" t="n">
-        <v>3.32</v>
+        <v>2.34</v>
       </c>
       <c r="F255" t="n">
-        <v>1.82</v>
+        <v>0.79</v>
       </c>
       <c r="G255" t="n">
         <v>0</v>
@@ -14115,13 +14115,13 @@
         <v>0</v>
       </c>
       <c r="J255" t="n">
-        <v>7.45</v>
+        <v>6.79</v>
       </c>
       <c r="K255" t="n">
-        <v>5.51</v>
+        <v>4.16</v>
       </c>
       <c r="L255" t="n">
-        <v>3.43</v>
+        <v>1.9</v>
       </c>
       <c r="M255" t="n">
         <v>0</v>
@@ -14144,13 +14144,13 @@
         <v>377</v>
       </c>
       <c r="D256" t="n">
-        <v>2.79</v>
+        <v>2.33</v>
       </c>
       <c r="E256" t="n">
-        <v>1.38</v>
+        <v>0.63</v>
       </c>
       <c r="F256" t="n">
-        <v>0.5</v>
+        <v>0.23</v>
       </c>
       <c r="G256" t="n">
         <v>0</v>
@@ -14162,16 +14162,16 @@
         <v>0</v>
       </c>
       <c r="J256" t="n">
-        <v>1.6</v>
+        <v>0.85</v>
       </c>
       <c r="K256" t="n">
-        <v>0.21</v>
+        <v>0.03</v>
       </c>
       <c r="L256" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M256" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N256" t="n">
         <v>0</v>
@@ -14209,7 +14209,7 @@
         <v>0</v>
       </c>
       <c r="J257" t="n">
-        <v>1.37</v>
+        <v>0.5</v>
       </c>
       <c r="K257" t="n">
         <v>0</v>
@@ -14218,7 +14218,7 @@
         <v>0</v>
       </c>
       <c r="M257" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N257" t="n">
         <v>0</v>
@@ -14238,13 +14238,13 @@
         <v>379</v>
       </c>
       <c r="D258" t="n">
-        <v>2.86</v>
+        <v>2.45</v>
       </c>
       <c r="E258" t="n">
-        <v>2.39</v>
+        <v>1.5</v>
       </c>
       <c r="F258" t="n">
-        <v>1.84</v>
+        <v>0.84</v>
       </c>
       <c r="G258" t="n">
         <v>0</v>
@@ -14256,16 +14256,16 @@
         <v>0</v>
       </c>
       <c r="J258" t="n">
-        <v>1.73</v>
+        <v>0.78</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3</v>
+        <v>0.04</v>
       </c>
       <c r="L258" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M258" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N258" t="n">
         <v>0</v>
@@ -14285,13 +14285,13 @@
         <v>380</v>
       </c>
       <c r="D259" t="n">
-        <v>2.64</v>
+        <v>2.25</v>
       </c>
       <c r="E259" t="n">
-        <v>1.44</v>
+        <v>0.68</v>
       </c>
       <c r="F259" t="n">
-        <v>0.37</v>
+        <v>0.06</v>
       </c>
       <c r="G259" t="n">
         <v>0</v>
@@ -14303,16 +14303,16 @@
         <v>0</v>
       </c>
       <c r="J259" t="n">
-        <v>1.64</v>
+        <v>0.83</v>
       </c>
       <c r="K259" t="n">
-        <v>0.21</v>
+        <v>0.03</v>
       </c>
       <c r="L259" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M259" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N259" t="n">
         <v>0</v>
@@ -14435,7 +14435,7 @@
         <v>0</v>
       </c>
       <c r="G262" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -14444,16 +14444,16 @@
         <v>0</v>
       </c>
       <c r="J262" t="n">
-        <v>3.59</v>
+        <v>2.04</v>
       </c>
       <c r="K262" t="n">
-        <v>1.02</v>
+        <v>0.02</v>
       </c>
       <c r="L262" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M262" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N262" t="n">
         <v>0</v>
@@ -14473,16 +14473,16 @@
         <v>386</v>
       </c>
       <c r="D263" t="n">
-        <v>2.31</v>
+        <v>1.68</v>
       </c>
       <c r="E263" t="n">
-        <v>0.75</v>
+        <v>0.15</v>
       </c>
       <c r="F263" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="G263" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -14491,16 +14491,16 @@
         <v>0</v>
       </c>
       <c r="J263" t="n">
-        <v>1.84</v>
+        <v>1.05</v>
       </c>
       <c r="K263" t="n">
-        <v>0.44</v>
+        <v>0.01</v>
       </c>
       <c r="L263" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M263" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="N263" t="n">
         <v>0</v>
@@ -14538,16 +14538,16 @@
         <v>0</v>
       </c>
       <c r="J264" t="n">
-        <v>1.91</v>
+        <v>0.98</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L264" t="n">
         <v>0</v>
       </c>
       <c r="M264" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N264" t="n">
         <v>0</v>
@@ -14567,16 +14567,16 @@
         <v>387</v>
       </c>
       <c r="D265" t="n">
-        <v>1.91</v>
+        <v>1.37</v>
       </c>
       <c r="E265" t="n">
-        <v>0.46</v>
+        <v>0.12</v>
       </c>
       <c r="F265" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="G265" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -14585,16 +14585,16 @@
         <v>0</v>
       </c>
       <c r="J265" t="n">
-        <v>1.73</v>
+        <v>1.01</v>
       </c>
       <c r="K265" t="n">
-        <v>0.27</v>
+        <v>0.02</v>
       </c>
       <c r="L265" t="n">
         <v>0</v>
       </c>
       <c r="M265" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="N265" t="n">
         <v>0</v>
@@ -14632,16 +14632,16 @@
         <v>0</v>
       </c>
       <c r="J266" t="n">
-        <v>1.92</v>
+        <v>0.93</v>
       </c>
       <c r="K266" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="L266" t="n">
         <v>0</v>
       </c>
       <c r="M266" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N266" t="n">
         <v>0</v>
@@ -14661,13 +14661,13 @@
         <v>390</v>
       </c>
       <c r="D267" t="n">
-        <v>5.03</v>
+        <v>3.94</v>
       </c>
       <c r="E267" t="n">
-        <v>2.94</v>
+        <v>1.22</v>
       </c>
       <c r="F267" t="n">
-        <v>1.21</v>
+        <v>0.01</v>
       </c>
       <c r="G267" t="n">
         <v>0</v>
@@ -14679,16 +14679,16 @@
         <v>0</v>
       </c>
       <c r="J267" t="n">
-        <v>2.98</v>
+        <v>1.75</v>
       </c>
       <c r="K267" t="n">
-        <v>0.79</v>
+        <v>0.15</v>
       </c>
       <c r="L267" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="M267" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="N267" t="n">
         <v>0</v>
@@ -14708,16 +14708,16 @@
         <v>391</v>
       </c>
       <c r="D268" t="n">
-        <v>3.62</v>
+        <v>2.83</v>
       </c>
       <c r="E268" t="n">
-        <v>1.7</v>
+        <v>0.66</v>
       </c>
       <c r="F268" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G268" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -14726,16 +14726,16 @@
         <v>0</v>
       </c>
       <c r="J268" t="n">
-        <v>4.9</v>
+        <v>3.84</v>
       </c>
       <c r="K268" t="n">
-        <v>2.05</v>
+        <v>0.75</v>
       </c>
       <c r="L268" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M268" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N268" t="n">
         <v>0</v>
@@ -14773,7 +14773,7 @@
         <v>0</v>
       </c>
       <c r="J269" t="n">
-        <v>1.48</v>
+        <v>0.35</v>
       </c>
       <c r="K269" t="n">
         <v>0</v>
@@ -14782,7 +14782,7 @@
         <v>0</v>
       </c>
       <c r="M269" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N269" t="n">
         <v>0</v>
@@ -14820,7 +14820,7 @@
         <v>0</v>
       </c>
       <c r="J270" t="n">
-        <v>1.89</v>
+        <v>0.55</v>
       </c>
       <c r="K270" t="n">
         <v>0</v>
@@ -14829,7 +14829,7 @@
         <v>0</v>
       </c>
       <c r="M270" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N270" t="n">
         <v>0</v>
@@ -14849,16 +14849,16 @@
         <v>394</v>
       </c>
       <c r="D271" t="n">
-        <v>2.81</v>
+        <v>2.03</v>
       </c>
       <c r="E271" t="n">
-        <v>0.94</v>
+        <v>0.16</v>
       </c>
       <c r="F271" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G271" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -14867,16 +14867,16 @@
         <v>0</v>
       </c>
       <c r="J271" t="n">
-        <v>2.32</v>
+        <v>1.21</v>
       </c>
       <c r="K271" t="n">
-        <v>0.39</v>
+        <v>0.01</v>
       </c>
       <c r="L271" t="n">
         <v>0</v>
       </c>
       <c r="M271" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N271" t="n">
         <v>0</v>
@@ -15272,16 +15272,16 @@
         <v>405</v>
       </c>
       <c r="D280" t="n">
-        <v>1.8</v>
+        <v>0.82</v>
       </c>
       <c r="E280" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="F280" t="n">
         <v>0</v>
       </c>
       <c r="G280" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -15290,16 +15290,16 @@
         <v>0</v>
       </c>
       <c r="J280" t="n">
-        <v>1.44</v>
+        <v>0.41</v>
       </c>
       <c r="K280" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L280" t="n">
         <v>0</v>
       </c>
       <c r="M280" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N280" t="n">
         <v>0</v>
@@ -15337,7 +15337,7 @@
         <v>0</v>
       </c>
       <c r="J281" t="n">
-        <v>1.32</v>
+        <v>0.29</v>
       </c>
       <c r="K281" t="n">
         <v>0</v>
@@ -15346,7 +15346,7 @@
         <v>0</v>
       </c>
       <c r="M281" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N281" t="n">
         <v>0</v>
@@ -15366,16 +15366,16 @@
         <v>407</v>
       </c>
       <c r="D282" t="n">
-        <v>2.28</v>
+        <v>1.4</v>
       </c>
       <c r="E282" t="n">
-        <v>0.31</v>
+        <v>0.01</v>
       </c>
       <c r="F282" t="n">
         <v>0</v>
       </c>
       <c r="G282" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -15384,16 +15384,16 @@
         <v>0</v>
       </c>
       <c r="J282" t="n">
-        <v>2.24</v>
+        <v>1.2</v>
       </c>
       <c r="K282" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="L282" t="n">
         <v>0</v>
       </c>
       <c r="M282" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N282" t="n">
         <v>0</v>
@@ -15431,16 +15431,16 @@
         <v>0</v>
       </c>
       <c r="J283" t="n">
-        <v>3.3</v>
+        <v>2.13</v>
       </c>
       <c r="K283" t="n">
-        <v>0.97</v>
+        <v>0.24</v>
       </c>
       <c r="L283" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="M283" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N283" t="n">
         <v>0</v>
@@ -15478,7 +15478,7 @@
         <v>0</v>
       </c>
       <c r="J284" t="n">
-        <v>1.93</v>
+        <v>0.58</v>
       </c>
       <c r="K284" t="n">
         <v>0</v>
@@ -15487,7 +15487,7 @@
         <v>0</v>
       </c>
       <c r="M284" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N284" t="n">
         <v>0</v>
@@ -15525,16 +15525,16 @@
         <v>0</v>
       </c>
       <c r="J285" t="n">
-        <v>2.44</v>
+        <v>1.5</v>
       </c>
       <c r="K285" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="L285" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M285" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="N285" t="n">
         <v>0</v>
@@ -15554,13 +15554,13 @@
         <v>412</v>
       </c>
       <c r="D286" t="n">
-        <v>5.99</v>
+        <v>5.16</v>
       </c>
       <c r="E286" t="n">
-        <v>3.93</v>
+        <v>2.15</v>
       </c>
       <c r="F286" t="n">
-        <v>1.59</v>
+        <v>0.25</v>
       </c>
       <c r="G286" t="n">
         <v>0</v>
@@ -15572,13 +15572,13 @@
         <v>0</v>
       </c>
       <c r="J286" t="n">
-        <v>8.17</v>
+        <v>7.4</v>
       </c>
       <c r="K286" t="n">
-        <v>6.17</v>
+        <v>4.56</v>
       </c>
       <c r="L286" t="n">
-        <v>3.93</v>
+        <v>1.95</v>
       </c>
       <c r="M286" t="n">
         <v>0</v>
@@ -15601,13 +15601,13 @@
         <v>413</v>
       </c>
       <c r="D287" t="n">
-        <v>5.45</v>
+        <v>4.77</v>
       </c>
       <c r="E287" t="n">
-        <v>4.05</v>
+        <v>2.69</v>
       </c>
       <c r="F287" t="n">
-        <v>2.54</v>
+        <v>1.09</v>
       </c>
       <c r="G287" t="n">
         <v>0</v>
@@ -15619,13 +15619,13 @@
         <v>0</v>
       </c>
       <c r="J287" t="n">
-        <v>3.49</v>
+        <v>2.83</v>
       </c>
       <c r="K287" t="n">
-        <v>2.22</v>
+        <v>0.98</v>
       </c>
       <c r="L287" t="n">
-        <v>0.92</v>
+        <v>0.11</v>
       </c>
       <c r="M287" t="n">
         <v>0</v>
@@ -15648,13 +15648,13 @@
         <v>414</v>
       </c>
       <c r="D288" t="n">
-        <v>4.66</v>
+        <v>3.75</v>
       </c>
       <c r="E288" t="n">
-        <v>2.53</v>
+        <v>1.09</v>
       </c>
       <c r="F288" t="n">
-        <v>0.82</v>
+        <v>0.11</v>
       </c>
       <c r="G288" t="n">
         <v>0</v>
@@ -15666,13 +15666,13 @@
         <v>0</v>
       </c>
       <c r="J288" t="n">
-        <v>6.93</v>
+        <v>6.09</v>
       </c>
       <c r="K288" t="n">
-        <v>4.71</v>
+        <v>2.98</v>
       </c>
       <c r="L288" t="n">
-        <v>2.27</v>
+        <v>0.42</v>
       </c>
       <c r="M288" t="n">
         <v>0</v>
@@ -15695,13 +15695,13 @@
         <v>415</v>
       </c>
       <c r="D289" t="n">
-        <v>7.33</v>
+        <v>6.7</v>
       </c>
       <c r="E289" t="n">
-        <v>5.92</v>
+        <v>4.55</v>
       </c>
       <c r="F289" t="n">
-        <v>4.27</v>
+        <v>2.14</v>
       </c>
       <c r="G289" t="n">
         <v>0</v>
@@ -15713,13 +15713,13 @@
         <v>0</v>
       </c>
       <c r="J289" t="n">
-        <v>6.15</v>
+        <v>5.5</v>
       </c>
       <c r="K289" t="n">
-        <v>4.68</v>
+        <v>3.29</v>
       </c>
       <c r="L289" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="M289" t="n">
         <v>0</v>
@@ -15742,13 +15742,13 @@
         <v>411</v>
       </c>
       <c r="D290" t="n">
-        <v>6.3</v>
+        <v>5.51</v>
       </c>
       <c r="E290" t="n">
-        <v>4.53</v>
+        <v>2.81</v>
       </c>
       <c r="F290" t="n">
-        <v>2.46</v>
+        <v>0.39</v>
       </c>
       <c r="G290" t="n">
         <v>0</v>
@@ -15760,16 +15760,16 @@
         <v>0</v>
       </c>
       <c r="J290" t="n">
-        <v>4.9</v>
+        <v>4.19</v>
       </c>
       <c r="K290" t="n">
-        <v>3.3</v>
+        <v>1.84</v>
       </c>
       <c r="L290" t="n">
-        <v>1.56</v>
+        <v>0.36</v>
       </c>
       <c r="M290" t="n">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="N290" t="n">
         <v>0</v>
@@ -16089,16 +16089,16 @@
         <v>0</v>
       </c>
       <c r="J297" t="n">
-        <v>2.04</v>
+        <v>0.85</v>
       </c>
       <c r="K297" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="L297" t="n">
         <v>0</v>
       </c>
       <c r="M297" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N297" t="n">
         <v>0</v>
@@ -16136,16 +16136,16 @@
         <v>0</v>
       </c>
       <c r="J298" t="n">
-        <v>2.63</v>
+        <v>1.4</v>
       </c>
       <c r="K298" t="n">
-        <v>0.35</v>
+        <v>0.05</v>
       </c>
       <c r="L298" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M298" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N298" t="n">
         <v>0</v>
@@ -16165,13 +16165,13 @@
         <v>426</v>
       </c>
       <c r="D299" t="n">
-        <v>7.4</v>
+        <v>6.62</v>
       </c>
       <c r="E299" t="n">
-        <v>5.65</v>
+        <v>4.14</v>
       </c>
       <c r="F299" t="n">
-        <v>3.83</v>
+        <v>2.12</v>
       </c>
       <c r="G299" t="n">
         <v>0</v>
@@ -16183,16 +16183,16 @@
         <v>0</v>
       </c>
       <c r="J299" t="n">
-        <v>4.22</v>
+        <v>3.34</v>
       </c>
       <c r="K299" t="n">
-        <v>2.22</v>
+        <v>1.27</v>
       </c>
       <c r="L299" t="n">
-        <v>1.04</v>
+        <v>0.37</v>
       </c>
       <c r="M299" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N299" t="n">
         <v>0</v>
@@ -16212,13 +16212,13 @@
         <v>427</v>
       </c>
       <c r="D300" t="n">
-        <v>6.48</v>
+        <v>5.19</v>
       </c>
       <c r="E300" t="n">
-        <v>2.57</v>
+        <v>0.79</v>
       </c>
       <c r="F300" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="G300" t="n">
         <v>0</v>
@@ -16230,16 +16230,16 @@
         <v>0</v>
       </c>
       <c r="J300" t="n">
-        <v>3.56</v>
+        <v>2.42</v>
       </c>
       <c r="K300" t="n">
-        <v>1.05</v>
+        <v>0.37</v>
       </c>
       <c r="L300" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="M300" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N300" t="n">
         <v>0</v>
@@ -16277,16 +16277,16 @@
         <v>0</v>
       </c>
       <c r="J301" t="n">
-        <v>1.96</v>
+        <v>0.72</v>
       </c>
       <c r="K301" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L301" t="n">
         <v>0</v>
       </c>
       <c r="M301" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N301" t="n">
         <v>0</v>
